--- a/painel/ArmazenaP/sobras.xlsx
+++ b/painel/ArmazenaP/sobras.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliseu\Documents\ESTÁGIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF3672E2-F171-4551-BBFF-C13458782156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026EB811-7EFC-4E9E-AC76-ECC78FC5518E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7598768F-D0C4-4133-A4B9-C73F6D2DD4CA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$M$2:$M$1495</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$N$1:$N$1495</definedName>
     <definedName name="LRAECAP" localSheetId="0">Planilha1!$A$1:$N$1495</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="1956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="1956">
   <si>
     <t>ARNO ALOISIO KUNZLER</t>
   </si>
@@ -5928,18 +5928,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5962,9 +5954,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5976,13 +5967,14 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6299,10 +6291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F361D98C-A517-43E3-9EFB-079E092BD8B3}">
-  <dimension ref="A2:O1495"/>
+  <dimension ref="A2:N1495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C319" workbookViewId="0">
-      <selection activeCell="M319" sqref="M319"/>
+    <sheetView tabSelected="1" topLeftCell="C577" workbookViewId="0">
+      <selection activeCell="N597" sqref="N597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6319,7 +6311,6 @@
     <col min="12" max="12" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="34.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -10678,7 +10669,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>1036</v>
       </c>
@@ -10716,7 +10707,7 @@
         <v>136.61000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>1042</v>
       </c>
@@ -10757,7 +10748,7 @@
         <v>996811753</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>1045</v>
       </c>
@@ -10798,7 +10789,7 @@
         <v>999917566</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>1054</v>
       </c>
@@ -10839,7 +10830,7 @@
         <v>999880984</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>1055</v>
       </c>
@@ -10880,7 +10871,7 @@
         <v>998042748</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>1074</v>
       </c>
@@ -10921,7 +10912,7 @@
         <v>996766733</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>1082</v>
       </c>
@@ -10959,7 +10950,7 @@
         <v>8.2200000000000006</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>1083</v>
       </c>
@@ -10997,7 +10988,7 @@
         <v>108.69</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>1090</v>
       </c>
@@ -11038,7 +11029,7 @@
         <v>998561998</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>1096</v>
       </c>
@@ -11079,7 +11070,7 @@
         <v>999948976</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>1098</v>
       </c>
@@ -11120,7 +11111,7 @@
         <v>996865689</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>1152</v>
       </c>
@@ -11158,7 +11149,7 @@
         <v>21.01</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>1153</v>
       </c>
@@ -11196,7 +11187,7 @@
         <v>52.09</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>1154</v>
       </c>
@@ -11234,7 +11225,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>1162</v>
       </c>
@@ -11271,14 +11262,11 @@
       <c r="L127">
         <v>294.81</v>
       </c>
-      <c r="M127" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O127" t="s">
+      <c r="M127" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>1176</v>
       </c>
@@ -15117,7 +15105,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>1784</v>
       </c>
@@ -15155,7 +15143,7 @@
         <v>462.36</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>1792</v>
       </c>
@@ -15193,7 +15181,7 @@
         <v>289.07</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>1793</v>
       </c>
@@ -15234,7 +15222,7 @@
         <v>998033693</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>1794</v>
       </c>
@@ -15272,7 +15260,7 @@
         <v>191.14</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>1799</v>
       </c>
@@ -15310,7 +15298,7 @@
         <v>118.36</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>1802</v>
       </c>
@@ -15348,7 +15336,7 @@
         <v>25.58</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>1805</v>
       </c>
@@ -15389,7 +15377,7 @@
         <v>998264195</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>1806</v>
       </c>
@@ -15427,7 +15415,7 @@
         <v>88.61</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>1807</v>
       </c>
@@ -15465,7 +15453,7 @@
         <v>132.09</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>1808</v>
       </c>
@@ -15503,7 +15491,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>1811</v>
       </c>
@@ -15544,7 +15532,7 @@
         <v>996886651</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>1816</v>
       </c>
@@ -15582,16 +15570,13 @@
         <v>147.47999999999999</v>
       </c>
       <c r="M236" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="N236" s="3">
         <v>998154336</v>
       </c>
-      <c r="O236" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>1818</v>
       </c>
@@ -15629,7 +15614,7 @@
         <v>596.52</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>1820</v>
       </c>
@@ -15670,7 +15655,7 @@
         <v>996548511</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>1822</v>
       </c>
@@ -15708,7 +15693,7 @@
         <v>100.97</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>1830</v>
       </c>
@@ -20188,7 +20173,7 @@
         <v>997061454</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>2452</v>
       </c>
@@ -20226,7 +20211,7 @@
         <v>39.97</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>2454</v>
       </c>
@@ -20267,7 +20252,7 @@
         <v>998520366</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>2459</v>
       </c>
@@ -20305,7 +20290,7 @@
         <v>192.69</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>2461</v>
       </c>
@@ -20346,7 +20331,7 @@
         <v>997253710</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>2463</v>
       </c>
@@ -20384,16 +20369,13 @@
         <v>76.05</v>
       </c>
       <c r="M357" t="s">
-        <v>2</v>
+        <v>377</v>
       </c>
       <c r="N357" s="3">
         <v>998394389</v>
       </c>
-      <c r="O357" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>2478</v>
       </c>
@@ -20431,7 +20413,7 @@
         <v>11.44</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>2479</v>
       </c>
@@ -20469,7 +20451,7 @@
         <v>303.56</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>2485</v>
       </c>
@@ -20507,7 +20489,7 @@
         <v>72.87</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>2490</v>
       </c>
@@ -20548,7 +20530,7 @@
         <v>996425023</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>2501</v>
       </c>
@@ -20586,7 +20568,7 @@
         <v>91.15</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>2546</v>
       </c>
@@ -20627,7 +20609,7 @@
         <v>999487996</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>2551</v>
       </c>
@@ -20668,7 +20650,7 @@
         <v>997389652</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>2555</v>
       </c>
@@ -20709,7 +20691,7 @@
         <v>5497034242</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>2560</v>
       </c>
@@ -20747,7 +20729,7 @@
         <v>172.17</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>2578</v>
       </c>
@@ -20785,7 +20767,7 @@
         <v>114.9</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>2579</v>
       </c>
@@ -21467,7 +21449,7 @@
         <v>999742399</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>2701</v>
       </c>
@@ -21505,7 +21487,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>2708</v>
       </c>
@@ -21543,7 +21525,7 @@
         <v>39.619999999999997</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>2713</v>
       </c>
@@ -21581,7 +21563,7 @@
         <v>234.18</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>2722</v>
       </c>
@@ -21622,7 +21604,7 @@
         <v>998904469</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>2725</v>
       </c>
@@ -21663,7 +21645,7 @@
         <v>996732536</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>2727</v>
       </c>
@@ -21704,7 +21686,7 @@
         <v>990574919</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>2731</v>
       </c>
@@ -21742,7 +21724,7 @@
         <v>14.43</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>2732</v>
       </c>
@@ -21780,7 +21762,7 @@
         <v>289.2</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>2746</v>
       </c>
@@ -21821,7 +21803,7 @@
         <v>998418395</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>2751</v>
       </c>
@@ -21862,7 +21844,7 @@
         <v>985863341</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>2761</v>
       </c>
@@ -21903,7 +21885,7 @@
         <v>996796406</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>2767</v>
       </c>
@@ -21944,7 +21926,7 @@
         <v>998485029</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>2781</v>
       </c>
@@ -21985,7 +21967,7 @@
         <v>995766203</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>2790</v>
       </c>
@@ -22023,7 +22005,7 @@
         <v>57.48</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>2791</v>
       </c>
@@ -22061,16 +22043,13 @@
         <v>42.98</v>
       </c>
       <c r="M399" t="s">
-        <v>2</v>
+        <v>420</v>
       </c>
       <c r="N399" s="3">
         <v>999115532</v>
       </c>
-      <c r="O399" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="400" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>2796</v>
       </c>
@@ -22111,7 +22090,7 @@
         <v>985165676</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>2810</v>
       </c>
@@ -22152,7 +22131,7 @@
         <v>999381281</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>2818</v>
       </c>
@@ -22193,7 +22172,7 @@
         <v>998667586</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>2820</v>
       </c>
@@ -22231,16 +22210,13 @@
         <v>803.43</v>
       </c>
       <c r="M403" t="s">
-        <v>2</v>
+        <v>425</v>
       </c>
       <c r="N403" s="3">
         <v>991274959</v>
       </c>
-      <c r="O403" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="404" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>2821</v>
       </c>
@@ -22281,7 +22257,7 @@
         <v>981859108</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>2897</v>
       </c>
@@ -22319,16 +22295,13 @@
         <v>161.59</v>
       </c>
       <c r="M405" t="s">
-        <v>2</v>
+        <v>428</v>
       </c>
       <c r="N405" s="3">
         <v>998807907</v>
       </c>
-      <c r="O405" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="406" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>2908</v>
       </c>
@@ -22366,7 +22339,7 @@
         <v>32.81</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>2939</v>
       </c>
@@ -22407,7 +22380,7 @@
         <v>996542385</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>2942</v>
       </c>
@@ -22448,7 +22421,7 @@
         <v>998855636</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>2982</v>
       </c>
@@ -22489,7 +22462,7 @@
         <v>995548489</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>2983</v>
       </c>
@@ -22530,7 +22503,7 @@
         <v>998314431</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>3001</v>
       </c>
@@ -22571,7 +22544,7 @@
         <v>999854766</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>3005</v>
       </c>
@@ -22612,7 +22585,7 @@
         <v>996121922</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>3018</v>
       </c>
@@ -22653,7 +22626,7 @@
         <v>998556743</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>3023</v>
       </c>
@@ -22691,7 +22664,7 @@
         <v>150.26</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>3036</v>
       </c>
@@ -22729,13 +22702,10 @@
         <v>208.92</v>
       </c>
       <c r="M415" t="s">
-        <v>2</v>
-      </c>
-      <c r="O415" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>3041</v>
       </c>
@@ -23411,7 +23381,7 @@
         <v>39.39</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>3111</v>
       </c>
@@ -23452,7 +23422,7 @@
         <v>991452564</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>3114</v>
       </c>
@@ -23490,7 +23460,7 @@
         <v>21.29</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>3116</v>
       </c>
@@ -23531,7 +23501,7 @@
         <v>980547232</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>3119</v>
       </c>
@@ -23569,7 +23539,7 @@
         <v>109.47</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>3123</v>
       </c>
@@ -23607,7 +23577,7 @@
         <v>7.03</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>3124</v>
       </c>
@@ -23648,7 +23618,7 @@
         <v>996323130</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>3125</v>
       </c>
@@ -23686,7 +23656,7 @@
         <v>90.82</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>3128</v>
       </c>
@@ -23727,7 +23697,7 @@
         <v>998720155</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>3132</v>
       </c>
@@ -23768,7 +23738,7 @@
         <v>991970350</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>3134</v>
       </c>
@@ -23809,7 +23779,7 @@
         <v>998273034</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>3137</v>
       </c>
@@ -23847,7 +23817,7 @@
         <v>126.08</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>3138</v>
       </c>
@@ -23888,7 +23858,7 @@
         <v>999924130</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>3139</v>
       </c>
@@ -23929,7 +23899,7 @@
         <v>998158798</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>3143</v>
       </c>
@@ -23967,13 +23937,10 @@
         <v>96.19</v>
       </c>
       <c r="M446" t="s">
-        <v>2</v>
-      </c>
-      <c r="O446" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>3145</v>
       </c>
@@ -24014,7 +23981,7 @@
         <v>998313940</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>3149</v>
       </c>
@@ -25331,7 +25298,7 @@
         <v>996972030</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
         <v>3266</v>
       </c>
@@ -25372,7 +25339,7 @@
         <v>999798001</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>3268</v>
       </c>
@@ -25410,7 +25377,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>3270</v>
       </c>
@@ -25451,7 +25418,7 @@
         <v>999787403</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>3271</v>
       </c>
@@ -25489,7 +25456,7 @@
         <v>28.46</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>3274</v>
       </c>
@@ -25527,7 +25494,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>3280</v>
       </c>
@@ -25565,7 +25532,7 @@
         <v>138.79</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>3292</v>
       </c>
@@ -25606,7 +25573,7 @@
         <v>996489343</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>3298</v>
       </c>
@@ -25647,7 +25614,7 @@
         <v>995045563</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>3307</v>
       </c>
@@ -25688,7 +25655,7 @@
         <v>980634240</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>3308</v>
       </c>
@@ -25729,7 +25696,7 @@
         <v>996260208</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
         <v>3311</v>
       </c>
@@ -25770,7 +25737,7 @@
         <v>997236705</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>3315</v>
       </c>
@@ -25808,7 +25775,7 @@
         <v>35.619999999999997</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
         <v>3317</v>
       </c>
@@ -25849,7 +25816,7 @@
         <v>996561853</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
         <v>3320</v>
       </c>
@@ -25887,7 +25854,7 @@
         <v>70.44</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>3322</v>
       </c>
@@ -25925,7 +25892,7 @@
         <v>28.86</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
         <v>3336</v>
       </c>
@@ -25963,16 +25930,13 @@
         <v>6.59</v>
       </c>
       <c r="M496" t="s">
-        <v>2</v>
+        <v>524</v>
       </c>
       <c r="N496" s="3">
         <v>998317612</v>
       </c>
-      <c r="O496" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="497" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>3338</v>
       </c>
@@ -26013,7 +25977,7 @@
         <v>998269478</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>3341</v>
       </c>
@@ -26051,7 +26015,7 @@
         <v>112.71</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
         <v>3342</v>
       </c>
@@ -26089,7 +26053,7 @@
         <v>300.02999999999997</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>3350</v>
       </c>
@@ -26127,7 +26091,7 @@
         <v>86.8</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>3352</v>
       </c>
@@ -26168,7 +26132,7 @@
         <v>998098971</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
         <v>3357</v>
       </c>
@@ -26209,7 +26173,7 @@
         <v>996317585</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
         <v>3359</v>
       </c>
@@ -26247,7 +26211,7 @@
         <v>94.15</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
         <v>3364</v>
       </c>
@@ -26288,7 +26252,7 @@
         <v>998079243</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
         <v>3367</v>
       </c>
@@ -26326,7 +26290,7 @@
         <v>299.49</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
         <v>3370</v>
       </c>
@@ -26367,7 +26331,7 @@
         <v>998250180</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
         <v>3372</v>
       </c>
@@ -26408,7 +26372,7 @@
         <v>998427848</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
         <v>3373</v>
       </c>
@@ -26446,7 +26410,7 @@
         <v>116.09</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
         <v>3374</v>
       </c>
@@ -26484,7 +26448,7 @@
         <v>106.76</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
         <v>3380</v>
       </c>
@@ -26522,16 +26486,13 @@
         <v>69.5</v>
       </c>
       <c r="M510" t="s">
-        <v>2</v>
+        <v>539</v>
       </c>
       <c r="N510" s="3">
         <v>999870404</v>
       </c>
-      <c r="O510" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="511" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
         <v>3388</v>
       </c>
@@ -26572,7 +26533,7 @@
         <v>998110354</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
         <v>3390</v>
       </c>
@@ -26610,7 +26571,7 @@
         <v>139.97</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
         <v>3410</v>
       </c>
@@ -26647,11 +26608,11 @@
       <c r="L513">
         <v>694.67</v>
       </c>
-      <c r="N513" s="3">
+      <c r="N513" s="5">
         <v>998071162</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
         <v>3416</v>
       </c>
@@ -26692,7 +26653,7 @@
         <v>996392866</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A515" s="1">
         <v>3417</v>
       </c>
@@ -26733,7 +26694,7 @@
         <v>996686424</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
         <v>3423</v>
       </c>
@@ -26771,16 +26732,13 @@
         <v>176.97</v>
       </c>
       <c r="M516" t="s">
-        <v>2</v>
+        <v>547</v>
       </c>
       <c r="N516" s="3">
         <v>997593630</v>
       </c>
-      <c r="O516" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="517" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
         <v>3430</v>
       </c>
@@ -26821,7 +26779,7 @@
         <v>998660527</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
         <v>3432</v>
       </c>
@@ -26862,7 +26820,7 @@
         <v>998186278</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A519" s="1">
         <v>3434</v>
       </c>
@@ -26900,7 +26858,7 @@
         <v>150.01</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A520" s="1">
         <v>3435</v>
       </c>
@@ -26941,7 +26899,7 @@
         <v>997955991</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>3446</v>
       </c>
@@ -26982,7 +26940,7 @@
         <v>996821893</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A522" s="1">
         <v>3451</v>
       </c>
@@ -27023,7 +26981,7 @@
         <v>996515327</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
         <v>3458</v>
       </c>
@@ -27064,7 +27022,7 @@
         <v>996599933</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A524" s="1">
         <v>3459</v>
       </c>
@@ -27105,7 +27063,7 @@
         <v>999350472</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A525" s="1">
         <v>3460</v>
       </c>
@@ -27146,7 +27104,7 @@
         <v>997018791</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A526" s="1">
         <v>3461</v>
       </c>
@@ -27187,7 +27145,7 @@
         <v>995625928</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A527" s="1">
         <v>3462</v>
       </c>
@@ -27225,7 +27183,7 @@
         <v>211.56</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A528" s="1">
         <v>3464</v>
       </c>
@@ -27856,7 +27814,7 @@
       <c r="L543" s="2">
         <v>10109.19</v>
       </c>
-      <c r="N543" s="5">
+      <c r="N543" s="6">
         <v>997425451</v>
       </c>
     </row>
@@ -31130,7 +31088,7 @@
         <v>98048906</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A625" s="1">
         <v>3872</v>
       </c>
@@ -31171,7 +31129,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A626" s="1">
         <v>3897</v>
       </c>
@@ -31212,7 +31170,7 @@
         <v>36971186</v>
       </c>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A627" s="1">
         <v>3898</v>
       </c>
@@ -31253,7 +31211,7 @@
         <v>91586904</v>
       </c>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A628" s="1">
         <v>3902</v>
       </c>
@@ -31294,7 +31252,7 @@
         <v>9988999</v>
       </c>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A629" s="1">
         <v>3919</v>
       </c>
@@ -31335,7 +31293,7 @@
         <v>97011627</v>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A630" s="1">
         <v>3923</v>
       </c>
@@ -31376,7 +31334,7 @@
         <v>97917981</v>
       </c>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A631" s="1">
         <v>3924</v>
       </c>
@@ -31414,7 +31372,7 @@
         <v>191.6</v>
       </c>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A632" s="1">
         <v>3955</v>
       </c>
@@ -31455,7 +31413,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A633" s="1">
         <v>3985</v>
       </c>
@@ -31496,7 +31454,7 @@
         <v>998860147</v>
       </c>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A634" s="1">
         <v>3986</v>
       </c>
@@ -31534,16 +31492,13 @@
         <v>1747.91</v>
       </c>
       <c r="M634" t="s">
-        <v>2</v>
+        <v>688</v>
       </c>
       <c r="N634" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="O634" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="635" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A635" s="1">
         <v>3987</v>
       </c>
@@ -31584,7 +31539,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A636" s="1">
         <v>3988</v>
       </c>
@@ -31625,7 +31580,7 @@
         <v>996427931</v>
       </c>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A637" s="1">
         <v>3989</v>
       </c>
@@ -31666,7 +31621,7 @@
         <v>995662068</v>
       </c>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A638" s="1">
         <v>3990</v>
       </c>
@@ -31707,7 +31662,7 @@
         <v>996251824</v>
       </c>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A639" s="1">
         <v>4027</v>
       </c>
@@ -31748,7 +31703,7 @@
         <v>97018546</v>
       </c>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A640" s="1">
         <v>4036</v>
       </c>
@@ -33080,7 +33035,7 @@
         <v>995683206</v>
       </c>
     </row>
-    <row r="673" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A673" s="1">
         <v>4336</v>
       </c>
@@ -33118,7 +33073,7 @@
         <v>35.520000000000003</v>
       </c>
     </row>
-    <row r="674" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A674" s="1">
         <v>4352</v>
       </c>
@@ -33156,16 +33111,13 @@
         <v>1209.5999999999999</v>
       </c>
       <c r="M674" t="s">
-        <v>2</v>
+        <v>738</v>
       </c>
       <c r="N674" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="O674" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="675" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="675" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A675" s="1">
         <v>4405</v>
       </c>
@@ -33206,7 +33158,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="676" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A676" s="1">
         <v>4406</v>
       </c>
@@ -33247,7 +33199,7 @@
         <v>999351086</v>
       </c>
     </row>
-    <row r="677" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A677" s="1">
         <v>4408</v>
       </c>
@@ -33288,7 +33240,7 @@
         <v>999350380</v>
       </c>
     </row>
-    <row r="678" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A678" s="1">
         <v>4412</v>
       </c>
@@ -33329,7 +33281,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="679" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A679" s="1">
         <v>4413</v>
       </c>
@@ -33367,16 +33319,13 @@
         <v>398.86</v>
       </c>
       <c r="M679" t="s">
-        <v>2</v>
+        <v>747</v>
       </c>
       <c r="N679" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="O679" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="680" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="680" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A680" s="1">
         <v>4436</v>
       </c>
@@ -33417,7 +33366,7 @@
         <v>998442297</v>
       </c>
     </row>
-    <row r="681" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A681" s="1">
         <v>4437</v>
       </c>
@@ -33455,7 +33404,7 @@
         <v>31.51</v>
       </c>
     </row>
-    <row r="682" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A682" s="1">
         <v>4440</v>
       </c>
@@ -33496,7 +33445,7 @@
         <v>999047613</v>
       </c>
     </row>
-    <row r="683" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A683" s="1">
         <v>4442</v>
       </c>
@@ -33537,7 +33486,7 @@
         <v>95406246</v>
       </c>
     </row>
-    <row r="684" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A684" s="1">
         <v>4446</v>
       </c>
@@ -33578,7 +33527,7 @@
         <v>111111111</v>
       </c>
     </row>
-    <row r="685" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A685" s="1">
         <v>4468</v>
       </c>
@@ -33619,7 +33568,7 @@
         <v>998168216</v>
       </c>
     </row>
-    <row r="686" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A686" s="1">
         <v>4472</v>
       </c>
@@ -33660,7 +33609,7 @@
         <v>36951155</v>
       </c>
     </row>
-    <row r="687" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A687" s="1">
         <v>4476</v>
       </c>
@@ -33701,7 +33650,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="688" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A688" s="1">
         <v>4484</v>
       </c>
@@ -33742,7 +33691,7 @@
         <v>980440882</v>
       </c>
     </row>
-    <row r="689" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A689" s="1">
         <v>4539</v>
       </c>
@@ -33783,7 +33732,7 @@
         <v>93087317</v>
       </c>
     </row>
-    <row r="690" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A690" s="1">
         <v>4540</v>
       </c>
@@ -33824,7 +33773,7 @@
         <v>98186171</v>
       </c>
     </row>
-    <row r="691" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A691" s="1">
         <v>4558</v>
       </c>
@@ -33865,7 +33814,7 @@
         <v>36951155</v>
       </c>
     </row>
-    <row r="692" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A692" s="1">
         <v>4580</v>
       </c>
@@ -33906,7 +33855,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="693" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A693" s="1">
         <v>4581</v>
       </c>
@@ -33947,7 +33896,7 @@
         <v>996332779</v>
       </c>
     </row>
-    <row r="694" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A694" s="1">
         <v>4584</v>
       </c>
@@ -33985,13 +33934,10 @@
         <v>2100</v>
       </c>
       <c r="M694" t="s">
-        <v>2</v>
-      </c>
-      <c r="O694" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="695" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A695" s="1">
         <v>4643</v>
       </c>
@@ -34029,7 +33975,7 @@
         <v>418.1</v>
       </c>
     </row>
-    <row r="696" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A696" s="1">
         <v>4644</v>
       </c>
@@ -34070,7 +34016,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="697" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A697" s="1">
         <v>4645</v>
       </c>
@@ -34111,7 +34057,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="698" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A698" s="1">
         <v>4672</v>
       </c>
@@ -34149,16 +34095,13 @@
         <v>1108.8</v>
       </c>
       <c r="M698" t="s">
-        <v>2</v>
+        <v>775</v>
       </c>
       <c r="N698" s="3">
         <v>5199827463</v>
       </c>
-      <c r="O698" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="699" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="699" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A699" s="1">
         <v>4678</v>
       </c>
@@ -34199,7 +34142,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="700" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A700" s="1">
         <v>4709</v>
       </c>
@@ -34237,16 +34180,13 @@
         <v>541.80999999999995</v>
       </c>
       <c r="M700" t="s">
-        <v>2</v>
+        <v>780</v>
       </c>
       <c r="N700" s="3">
         <v>98272039</v>
       </c>
-      <c r="O700" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="701" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="701" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A701" s="1">
         <v>4712</v>
       </c>
@@ -34287,7 +34227,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="702" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A702" s="1">
         <v>4718</v>
       </c>
@@ -34325,16 +34265,13 @@
         <v>386.4</v>
       </c>
       <c r="M702" t="s">
-        <v>2</v>
+        <v>785</v>
       </c>
       <c r="N702" s="3">
         <v>111111111</v>
       </c>
-      <c r="O702" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="703" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="703" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A703" s="1">
         <v>4772</v>
       </c>
@@ -34375,7 +34312,7 @@
         <v>998392016</v>
       </c>
     </row>
-    <row r="704" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A704" s="1">
         <v>4776</v>
       </c>
@@ -35066,7 +35003,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="721" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A721" s="1">
         <v>4847</v>
       </c>
@@ -35107,7 +35044,7 @@
         <v>98778202</v>
       </c>
     </row>
-    <row r="722" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A722" s="1">
         <v>4848</v>
       </c>
@@ -35148,7 +35085,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="723" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A723" s="1">
         <v>4849</v>
       </c>
@@ -35189,7 +35126,7 @@
         <v>36950000</v>
       </c>
     </row>
-    <row r="724" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A724" s="1">
         <v>4851</v>
       </c>
@@ -35230,7 +35167,7 @@
         <v>999754381</v>
       </c>
     </row>
-    <row r="725" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A725" s="1">
         <v>4859</v>
       </c>
@@ -35271,7 +35208,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="726" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A726" s="1">
         <v>4967</v>
       </c>
@@ -35309,13 +35246,10 @@
         <v>537.6</v>
       </c>
       <c r="M726" t="s">
-        <v>2</v>
-      </c>
-      <c r="O726" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="727" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A727" s="1">
         <v>4983</v>
       </c>
@@ -35353,13 +35287,10 @@
         <v>168</v>
       </c>
       <c r="M727" t="s">
-        <v>2</v>
-      </c>
-      <c r="O727" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="728" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A728" s="1">
         <v>5001</v>
       </c>
@@ -35397,16 +35328,13 @@
         <v>8319.6299999999992</v>
       </c>
       <c r="M728" t="s">
-        <v>2</v>
+        <v>828</v>
       </c>
       <c r="N728" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="O728" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="729" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="729" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A729" s="1">
         <v>5015</v>
       </c>
@@ -35447,7 +35375,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="730" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A730" s="1">
         <v>5016</v>
       </c>
@@ -35488,7 +35416,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="731" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A731" s="1">
         <v>5115</v>
       </c>
@@ -35529,7 +35457,7 @@
         <v>996422112</v>
       </c>
     </row>
-    <row r="732" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A732" s="1">
         <v>5116</v>
       </c>
@@ -35570,7 +35498,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="733" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A733" s="1">
         <v>5131</v>
       </c>
@@ -35608,16 +35536,13 @@
         <v>404.48</v>
       </c>
       <c r="M733" t="s">
-        <v>2</v>
+        <v>839</v>
       </c>
       <c r="N733" s="3">
         <v>999333280</v>
       </c>
-      <c r="O733" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="734" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="734" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A734" s="1">
         <v>5150</v>
       </c>
@@ -35655,7 +35580,7 @@
         <v>128.46</v>
       </c>
     </row>
-    <row r="735" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A735" s="1">
         <v>5162</v>
       </c>
@@ -35693,7 +35618,7 @@
         <v>19.32</v>
       </c>
     </row>
-    <row r="736" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A736" s="1">
         <v>5165</v>
       </c>
@@ -35731,13 +35656,10 @@
         <v>89.66</v>
       </c>
       <c r="M736" t="s">
-        <v>2</v>
-      </c>
-      <c r="O736" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="737" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A737" s="1">
         <v>5191</v>
       </c>
@@ -35778,7 +35700,7 @@
         <v>96863135</v>
       </c>
     </row>
-    <row r="738" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A738" s="1">
         <v>5193</v>
       </c>
@@ -35819,7 +35741,7 @@
         <v>36341130</v>
       </c>
     </row>
-    <row r="739" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A739" s="1">
         <v>5194</v>
       </c>
@@ -35860,7 +35782,7 @@
         <v>998782778</v>
       </c>
     </row>
-    <row r="740" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A740" s="1">
         <v>5230</v>
       </c>
@@ -35901,7 +35823,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="741" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A741" s="1">
         <v>5251</v>
       </c>
@@ -35939,7 +35861,7 @@
         <v>126.98</v>
       </c>
     </row>
-    <row r="742" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A742" s="1">
         <v>5253</v>
       </c>
@@ -35977,16 +35899,13 @@
         <v>5040</v>
       </c>
       <c r="M742" t="s">
-        <v>2</v>
+        <v>852</v>
       </c>
       <c r="N742" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="O742" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="743" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="743" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A743" s="1">
         <v>5268</v>
       </c>
@@ -36027,7 +35946,7 @@
         <v>36951155</v>
       </c>
     </row>
-    <row r="744" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A744" s="1">
         <v>5270</v>
       </c>
@@ -36068,7 +35987,7 @@
         <v>516358092</v>
       </c>
     </row>
-    <row r="745" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A745" s="1">
         <v>5289</v>
       </c>
@@ -36109,7 +36028,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="746" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A746" s="1">
         <v>5290</v>
       </c>
@@ -36150,7 +36069,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="747" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A747" s="1">
         <v>5327</v>
       </c>
@@ -36191,7 +36110,7 @@
         <v>97196099</v>
       </c>
     </row>
-    <row r="748" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A748" s="1">
         <v>5377</v>
       </c>
@@ -36232,7 +36151,7 @@
         <v>97946616</v>
       </c>
     </row>
-    <row r="749" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A749" s="1">
         <v>5378</v>
       </c>
@@ -36270,7 +36189,7 @@
         <v>62.01</v>
       </c>
     </row>
-    <row r="750" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A750" s="1">
         <v>5379</v>
       </c>
@@ -36311,7 +36230,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="751" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A751" s="1">
         <v>5380</v>
       </c>
@@ -36352,7 +36271,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="752" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A752" s="1">
         <v>5382</v>
       </c>
@@ -36390,7 +36309,7 @@
         <v>23.24</v>
       </c>
     </row>
-    <row r="753" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A753" s="1">
         <v>5384</v>
       </c>
@@ -36431,7 +36350,7 @@
         <v>998186022</v>
       </c>
     </row>
-    <row r="754" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A754" s="1">
         <v>5388</v>
       </c>
@@ -36469,7 +36388,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="755" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A755" s="1">
         <v>5402</v>
       </c>
@@ -36507,7 +36426,7 @@
         <v>87.72</v>
       </c>
     </row>
-    <row r="756" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A756" s="1">
         <v>5417</v>
       </c>
@@ -36548,7 +36467,7 @@
         <v>998141405</v>
       </c>
     </row>
-    <row r="757" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A757" s="1">
         <v>5418</v>
       </c>
@@ -36589,7 +36508,7 @@
         <v>91773549</v>
       </c>
     </row>
-    <row r="758" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A758" s="1">
         <v>5422</v>
       </c>
@@ -36630,7 +36549,7 @@
         <v>36973037</v>
       </c>
     </row>
-    <row r="759" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A759" s="1">
         <v>5426</v>
       </c>
@@ -36671,7 +36590,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="760" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A760" s="1">
         <v>5427</v>
       </c>
@@ -36712,7 +36631,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="761" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A761" s="1">
         <v>5429</v>
       </c>
@@ -36753,7 +36672,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="762" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A762" s="1">
         <v>5431</v>
       </c>
@@ -36794,7 +36713,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="763" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A763" s="1">
         <v>5466</v>
       </c>
@@ -36832,13 +36751,10 @@
         <v>588</v>
       </c>
       <c r="M763" t="s">
-        <v>2</v>
-      </c>
-      <c r="O763" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="764" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A764" s="1">
         <v>5468</v>
       </c>
@@ -36876,16 +36792,13 @@
         <v>201.6</v>
       </c>
       <c r="M764" t="s">
-        <v>2</v>
+        <v>889</v>
       </c>
       <c r="N764" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="O764" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="765" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="765" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A765" s="1">
         <v>5472</v>
       </c>
@@ -36926,7 +36839,7 @@
         <v>98891867</v>
       </c>
     </row>
-    <row r="766" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A766" s="1">
         <v>5475</v>
       </c>
@@ -36964,16 +36877,13 @@
         <v>420</v>
       </c>
       <c r="M766" t="s">
-        <v>2</v>
+        <v>893</v>
       </c>
       <c r="N766" s="3">
         <v>1111111111</v>
       </c>
-      <c r="O766" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="767" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="767" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A767" s="1">
         <v>5506</v>
       </c>
@@ -37014,7 +36924,7 @@
         <v>99998888</v>
       </c>
     </row>
-    <row r="768" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A768" s="1">
         <v>5546</v>
       </c>
@@ -37055,7 +36965,7 @@
         <v>999529305</v>
       </c>
     </row>
-    <row r="769" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A769" s="1">
         <v>5547</v>
       </c>
@@ -37096,7 +37006,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="770" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A770" s="1">
         <v>5548</v>
       </c>
@@ -37137,7 +37047,7 @@
         <v>998965295</v>
       </c>
     </row>
-    <row r="771" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A771" s="1">
         <v>5551</v>
       </c>
@@ -37175,16 +37085,13 @@
         <v>840</v>
       </c>
       <c r="M771" t="s">
-        <v>2</v>
+        <v>893</v>
       </c>
       <c r="N771" s="3">
         <v>111111111</v>
       </c>
-      <c r="O771" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="772" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="772" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A772" s="1">
         <v>5568</v>
       </c>
@@ -37225,7 +37132,7 @@
         <v>97128098</v>
       </c>
     </row>
-    <row r="773" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A773" s="1">
         <v>5583</v>
       </c>
@@ -37266,7 +37173,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="774" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A774" s="1">
         <v>5584</v>
       </c>
@@ -37307,7 +37214,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="775" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A775" s="1">
         <v>5588</v>
       </c>
@@ -37348,7 +37255,7 @@
         <v>998492492</v>
       </c>
     </row>
-    <row r="776" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A776" s="1">
         <v>5591</v>
       </c>
@@ -37389,7 +37296,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="777" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A777" s="1">
         <v>5605</v>
       </c>
@@ -37430,7 +37337,7 @@
         <v>96910597</v>
       </c>
     </row>
-    <row r="778" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A778" s="1">
         <v>5623</v>
       </c>
@@ -37471,7 +37378,7 @@
         <v>999390620</v>
       </c>
     </row>
-    <row r="779" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A779" s="1">
         <v>5690</v>
       </c>
@@ -37512,7 +37419,7 @@
         <v>1451980199974</v>
       </c>
     </row>
-    <row r="780" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A780" s="1">
         <v>5692</v>
       </c>
@@ -37553,7 +37460,7 @@
         <v>96183906</v>
       </c>
     </row>
-    <row r="781" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A781" s="1">
         <v>5693</v>
       </c>
@@ -37594,7 +37501,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="782" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A782" s="1">
         <v>5694</v>
       </c>
@@ -37635,7 +37542,7 @@
         <v>998735324</v>
       </c>
     </row>
-    <row r="783" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A783" s="1">
         <v>5703</v>
       </c>
@@ -37676,7 +37583,7 @@
         <v>98151894</v>
       </c>
     </row>
-    <row r="784" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A784" s="1">
         <v>5704</v>
       </c>
@@ -37717,7 +37624,7 @@
         <v>96695196</v>
       </c>
     </row>
-    <row r="785" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A785" s="1">
         <v>5706</v>
       </c>
@@ -37758,7 +37665,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="786" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A786" s="1">
         <v>5707</v>
       </c>
@@ -37799,7 +37706,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="787" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A787" s="1">
         <v>5711</v>
       </c>
@@ -37840,7 +37747,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="788" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A788" s="1">
         <v>5712</v>
       </c>
@@ -37881,7 +37788,7 @@
         <v>36991041</v>
       </c>
     </row>
-    <row r="789" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A789" s="1">
         <v>5725</v>
       </c>
@@ -37922,7 +37829,7 @@
         <v>99431936</v>
       </c>
     </row>
-    <row r="790" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A790" s="1">
         <v>5755</v>
       </c>
@@ -37963,7 +37870,7 @@
         <v>99760724</v>
       </c>
     </row>
-    <row r="791" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A791" s="1">
         <v>5759</v>
       </c>
@@ -38004,7 +37911,7 @@
         <v>96965118</v>
       </c>
     </row>
-    <row r="792" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A792" s="1">
         <v>5768</v>
       </c>
@@ -38045,7 +37952,7 @@
         <v>96914373</v>
       </c>
     </row>
-    <row r="793" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A793" s="1">
         <v>5769</v>
       </c>
@@ -38086,7 +37993,7 @@
         <v>36391071</v>
       </c>
     </row>
-    <row r="794" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A794" s="1">
         <v>5780</v>
       </c>
@@ -38127,7 +38034,7 @@
         <v>996746099</v>
       </c>
     </row>
-    <row r="795" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A795" s="1">
         <v>5781</v>
       </c>
@@ -38168,7 +38075,7 @@
         <v>98580121</v>
       </c>
     </row>
-    <row r="796" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A796" s="1">
         <v>5801</v>
       </c>
@@ -38206,13 +38113,10 @@
         <v>814.67</v>
       </c>
       <c r="M796" t="s">
-        <v>2</v>
-      </c>
-      <c r="O796" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="797" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A797" s="1">
         <v>5818</v>
       </c>
@@ -38253,7 +38157,7 @@
         <v>111111111</v>
       </c>
     </row>
-    <row r="798" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A798" s="1">
         <v>5827</v>
       </c>
@@ -38294,7 +38198,7 @@
         <v>96062135</v>
       </c>
     </row>
-    <row r="799" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A799" s="1">
         <v>5833</v>
       </c>
@@ -38335,7 +38239,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="800" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A800" s="1">
         <v>5834</v>
       </c>
@@ -38376,7 +38280,7 @@
         <v>36951155</v>
       </c>
     </row>
-    <row r="801" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A801" s="1">
         <v>5835</v>
       </c>
@@ -38414,13 +38318,10 @@
         <v>2167.1999999999998</v>
       </c>
       <c r="M801" t="s">
-        <v>2</v>
-      </c>
-      <c r="O801" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="802" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A802" s="1">
         <v>5845</v>
       </c>
@@ -38461,7 +38362,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="803" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A803" s="1">
         <v>5865</v>
       </c>
@@ -38502,7 +38403,7 @@
         <v>995584255</v>
       </c>
     </row>
-    <row r="804" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A804" s="1">
         <v>5868</v>
       </c>
@@ -38543,7 +38444,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="805" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A805" s="1">
         <v>5874</v>
       </c>
@@ -38584,7 +38485,7 @@
         <v>99671551</v>
       </c>
     </row>
-    <row r="806" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A806" s="1">
         <v>5899</v>
       </c>
@@ -38625,7 +38526,7 @@
         <v>997794423</v>
       </c>
     </row>
-    <row r="807" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A807" s="1">
         <v>5901</v>
       </c>
@@ -38666,7 +38567,7 @@
         <v>97848847</v>
       </c>
     </row>
-    <row r="808" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A808" s="1">
         <v>5902</v>
       </c>
@@ -38704,7 +38605,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="809" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A809" s="1">
         <v>5904</v>
       </c>
@@ -38745,7 +38646,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="810" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A810" s="1">
         <v>5905</v>
       </c>
@@ -38786,7 +38687,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="811" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A811" s="1">
         <v>5914</v>
       </c>
@@ -38827,7 +38728,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="812" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A812" s="1">
         <v>5915</v>
       </c>
@@ -38868,7 +38769,7 @@
         <v>99033762</v>
       </c>
     </row>
-    <row r="813" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A813" s="1">
         <v>5916</v>
       </c>
@@ -38906,7 +38807,7 @@
         <v>163.95</v>
       </c>
     </row>
-    <row r="814" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A814" s="1">
         <v>5921</v>
       </c>
@@ -38944,16 +38845,13 @@
         <v>2604</v>
       </c>
       <c r="M814" t="s">
-        <v>2</v>
+        <v>960</v>
       </c>
       <c r="N814" s="3">
         <v>53999822913</v>
       </c>
-      <c r="O814" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="815" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="815" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A815" s="1">
         <v>5930</v>
       </c>
@@ -38994,7 +38892,7 @@
         <v>98992467</v>
       </c>
     </row>
-    <row r="816" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A816" s="1">
         <v>5932</v>
       </c>
@@ -39035,7 +38933,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="817" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A817" s="1">
         <v>5936</v>
       </c>
@@ -39076,7 +38974,7 @@
         <v>998110295</v>
       </c>
     </row>
-    <row r="818" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A818" s="1">
         <v>5938</v>
       </c>
@@ -39114,7 +39012,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="819" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A819" s="1">
         <v>5940</v>
       </c>
@@ -39155,7 +39053,7 @@
         <v>98190169</v>
       </c>
     </row>
-    <row r="820" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A820" s="1">
         <v>5941</v>
       </c>
@@ -39196,7 +39094,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="821" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A821" s="1">
         <v>5948</v>
       </c>
@@ -39237,7 +39135,7 @@
         <v>92235079</v>
       </c>
     </row>
-    <row r="822" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A822" s="1">
         <v>5949</v>
       </c>
@@ -39275,7 +39173,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="823" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A823" s="1">
         <v>5950</v>
       </c>
@@ -39316,7 +39214,7 @@
         <v>996247299</v>
       </c>
     </row>
-    <row r="824" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A824" s="1">
         <v>5951</v>
       </c>
@@ -39354,7 +39252,7 @@
         <v>154.99</v>
       </c>
     </row>
-    <row r="825" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A825" s="1">
         <v>5952</v>
       </c>
@@ -39395,7 +39293,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="826" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A826" s="1">
         <v>5963</v>
       </c>
@@ -39433,7 +39331,7 @@
         <v>66.040000000000006</v>
       </c>
     </row>
-    <row r="827" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A827" s="1">
         <v>5965</v>
       </c>
@@ -39474,7 +39372,7 @@
         <v>98496370</v>
       </c>
     </row>
-    <row r="828" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A828" s="1">
         <v>5966</v>
       </c>
@@ -39512,7 +39410,7 @@
         <v>145.05000000000001</v>
       </c>
     </row>
-    <row r="829" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A829" s="1">
         <v>5976</v>
       </c>
@@ -39553,7 +39451,7 @@
         <v>999720033</v>
       </c>
     </row>
-    <row r="830" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A830" s="1">
         <v>5993</v>
       </c>
@@ -39591,13 +39489,10 @@
         <v>840</v>
       </c>
       <c r="M830" t="s">
-        <v>2</v>
-      </c>
-      <c r="O830" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="831" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A831" s="1">
         <v>6005</v>
       </c>
@@ -39635,7 +39530,7 @@
         <v>209.43</v>
       </c>
     </row>
-    <row r="832" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A832" s="1">
         <v>6009</v>
       </c>
@@ -39676,7 +39571,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="833" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A833" s="1">
         <v>6016</v>
       </c>
@@ -39717,7 +39612,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="834" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A834" s="1">
         <v>6031</v>
       </c>
@@ -39755,7 +39650,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="835" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A835" s="1">
         <v>6034</v>
       </c>
@@ -39796,7 +39691,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="836" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A836" s="1">
         <v>6047</v>
       </c>
@@ -39837,7 +39732,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="837" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A837" s="1">
         <v>6059</v>
       </c>
@@ -39875,7 +39770,7 @@
         <v>50.17</v>
       </c>
     </row>
-    <row r="838" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A838" s="1">
         <v>6073</v>
       </c>
@@ -39916,7 +39811,7 @@
         <v>998816267</v>
       </c>
     </row>
-    <row r="839" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A839" s="1">
         <v>6077</v>
       </c>
@@ -39957,7 +39852,7 @@
         <v>96745374</v>
       </c>
     </row>
-    <row r="840" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A840" s="1">
         <v>6078</v>
       </c>
@@ -39998,7 +39893,7 @@
         <v>996756781</v>
       </c>
     </row>
-    <row r="841" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A841" s="1">
         <v>6087</v>
       </c>
@@ -40039,7 +39934,7 @@
         <v>96887706</v>
       </c>
     </row>
-    <row r="842" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A842" s="1">
         <v>6102</v>
       </c>
@@ -40077,16 +39972,13 @@
         <v>161</v>
       </c>
       <c r="M842" t="s">
-        <v>2</v>
+        <v>995</v>
       </c>
       <c r="N842" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="O842" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="843" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="843" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A843" s="1">
         <v>6142</v>
       </c>
@@ -40127,7 +40019,7 @@
         <v>997119111</v>
       </c>
     </row>
-    <row r="844" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A844" s="1">
         <v>6143</v>
       </c>
@@ -40168,7 +40060,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="845" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A845" s="1">
         <v>6145</v>
       </c>
@@ -40209,7 +40101,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="846" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A846" s="1">
         <v>6146</v>
       </c>
@@ -40250,7 +40142,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="847" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A847" s="1">
         <v>6148</v>
       </c>
@@ -40291,7 +40183,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="848" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A848" s="1">
         <v>6160</v>
       </c>
@@ -40982,7 +40874,7 @@
         <v>992652664</v>
       </c>
     </row>
-    <row r="865" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A865" s="1">
         <v>6232</v>
       </c>
@@ -41020,7 +40912,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="866" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A866" s="1">
         <v>6234</v>
       </c>
@@ -41058,7 +40950,7 @@
         <v>46.44</v>
       </c>
     </row>
-    <row r="867" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A867" s="1">
         <v>6235</v>
       </c>
@@ -41096,16 +40988,13 @@
         <v>81179.34</v>
       </c>
       <c r="M867" t="s">
-        <v>2</v>
+        <v>1033</v>
       </c>
       <c r="N867" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="O867" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="868" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="868" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A868" s="1">
         <v>6236</v>
       </c>
@@ -41146,7 +41035,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="869" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A869" s="1">
         <v>6240</v>
       </c>
@@ -41187,7 +41076,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="870" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A870" s="1">
         <v>6241</v>
       </c>
@@ -41228,7 +41117,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="871" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A871" s="1">
         <v>6242</v>
       </c>
@@ -41269,7 +41158,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="872" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A872" s="1">
         <v>6253</v>
       </c>
@@ -41310,7 +41199,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="873" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A873" s="1">
         <v>6254</v>
       </c>
@@ -41351,7 +41240,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="874" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A874" s="1">
         <v>6255</v>
       </c>
@@ -41392,7 +41281,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="875" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A875" s="1">
         <v>6256</v>
       </c>
@@ -41433,7 +41322,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="876" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A876" s="1">
         <v>6258</v>
       </c>
@@ -41474,7 +41363,7 @@
         <v>997327979</v>
       </c>
     </row>
-    <row r="877" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A877" s="1">
         <v>6259</v>
       </c>
@@ -41515,7 +41404,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="878" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A878" s="1">
         <v>6273</v>
       </c>
@@ -41556,7 +41445,7 @@
         <v>98465899</v>
       </c>
     </row>
-    <row r="879" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A879" s="1">
         <v>6275</v>
       </c>
@@ -41597,7 +41486,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="880" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A880" s="1">
         <v>6278</v>
       </c>
@@ -42288,7 +42177,7 @@
         <v>995080319</v>
       </c>
     </row>
-    <row r="897" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A897" s="1">
         <v>6365</v>
       </c>
@@ -42329,7 +42218,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="898" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A898" s="1">
         <v>6366</v>
       </c>
@@ -42370,7 +42259,7 @@
         <v>996487072</v>
       </c>
     </row>
-    <row r="899" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A899" s="1">
         <v>6367</v>
       </c>
@@ -42411,7 +42300,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="900" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A900" s="1">
         <v>6370</v>
       </c>
@@ -42452,7 +42341,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="901" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A901" s="1">
         <v>6372</v>
       </c>
@@ -42493,7 +42382,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="902" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A902" s="1">
         <v>6373</v>
       </c>
@@ -42534,7 +42423,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="903" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A903" s="1">
         <v>6380</v>
       </c>
@@ -42572,7 +42461,7 @@
         <v>2452.8000000000002</v>
       </c>
     </row>
-    <row r="904" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A904" s="1">
         <v>6387</v>
       </c>
@@ -42610,13 +42499,10 @@
         <v>1.76</v>
       </c>
       <c r="M904" t="s">
-        <v>2</v>
-      </c>
-      <c r="O904" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="905" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A905" s="1">
         <v>6393</v>
       </c>
@@ -42654,16 +42540,13 @@
         <v>34.869999999999997</v>
       </c>
       <c r="M905" t="s">
-        <v>2</v>
+        <v>1098</v>
       </c>
       <c r="N905" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="O905" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="906" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="906" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A906" s="1">
         <v>6395</v>
       </c>
@@ -42704,7 +42587,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="907" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A907" s="1">
         <v>6400</v>
       </c>
@@ -42745,7 +42628,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="908" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A908" s="1">
         <v>6402</v>
       </c>
@@ -42786,7 +42669,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="909" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A909" s="1">
         <v>6403</v>
       </c>
@@ -42827,7 +42710,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="910" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A910" s="1">
         <v>6409</v>
       </c>
@@ -42868,7 +42751,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="911" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A911" s="1">
         <v>6410</v>
       </c>
@@ -42909,7 +42792,7 @@
         <v>98141227</v>
       </c>
     </row>
-    <row r="912" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A912" s="1">
         <v>6411</v>
       </c>
@@ -42950,7 +42833,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="913" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A913" s="1">
         <v>6412</v>
       </c>
@@ -42991,7 +42874,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="914" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A914" s="1">
         <v>6422</v>
       </c>
@@ -43032,7 +42915,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="915" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A915" s="1">
         <v>6423</v>
       </c>
@@ -43070,7 +42953,7 @@
         <v>50.17</v>
       </c>
     </row>
-    <row r="916" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A916" s="1">
         <v>6424</v>
       </c>
@@ -43111,7 +42994,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="917" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A917" s="1">
         <v>6426</v>
       </c>
@@ -43152,7 +43035,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="918" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A918" s="1">
         <v>6440</v>
       </c>
@@ -43193,7 +43076,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="919" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A919" s="1">
         <v>6443</v>
       </c>
@@ -43234,7 +43117,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="920" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A920" s="1">
         <v>6451</v>
       </c>
@@ -43272,7 +43155,7 @@
         <v>1276.8</v>
       </c>
     </row>
-    <row r="921" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A921" s="1">
         <v>6466</v>
       </c>
@@ -43310,16 +43193,13 @@
         <v>235.2</v>
       </c>
       <c r="M921" t="s">
-        <v>2</v>
+        <v>1129</v>
       </c>
       <c r="N921" s="3">
         <v>1111111111111</v>
       </c>
-      <c r="O921" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="922" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="922" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A922" s="1">
         <v>6471</v>
       </c>
@@ -43360,7 +43240,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="923" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A923" s="1">
         <v>6472</v>
       </c>
@@ -43398,16 +43278,13 @@
         <v>738.99</v>
       </c>
       <c r="M923" t="s">
-        <v>2</v>
+        <v>1134</v>
       </c>
       <c r="N923" s="3">
         <v>998232021</v>
       </c>
-      <c r="O923" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="924" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="924" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A924" s="1">
         <v>6473</v>
       </c>
@@ -43448,7 +43325,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="925" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A925" s="1">
         <v>6474</v>
       </c>
@@ -43489,7 +43366,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="926" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A926" s="1">
         <v>6491</v>
       </c>
@@ -43527,7 +43404,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="927" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A927" s="1">
         <v>6515</v>
       </c>
@@ -43568,7 +43445,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="928" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A928" s="1">
         <v>6516</v>
       </c>
@@ -43609,7 +43486,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="929" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A929" s="1">
         <v>6517</v>
       </c>
@@ -43650,7 +43527,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="930" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A930" s="1">
         <v>6519</v>
       </c>
@@ -43691,7 +43568,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="931" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A931" s="1">
         <v>6520</v>
       </c>
@@ -43732,7 +43609,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="932" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A932" s="1">
         <v>6521</v>
       </c>
@@ -43773,7 +43650,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="933" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A933" s="1">
         <v>6522</v>
       </c>
@@ -43814,7 +43691,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="934" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A934" s="1">
         <v>6523</v>
       </c>
@@ -43855,7 +43732,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="935" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A935" s="1">
         <v>6525</v>
       </c>
@@ -43896,7 +43773,7 @@
         <v>51997018533</v>
       </c>
     </row>
-    <row r="936" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A936" s="1">
         <v>6535</v>
       </c>
@@ -43937,7 +43814,7 @@
         <v>99380158</v>
       </c>
     </row>
-    <row r="937" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A937" s="1">
         <v>6545</v>
       </c>
@@ -43978,7 +43855,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="938" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A938" s="1">
         <v>6549</v>
       </c>
@@ -44016,16 +43893,13 @@
         <v>328.38</v>
       </c>
       <c r="M938" t="s">
-        <v>2</v>
+        <v>1161</v>
       </c>
       <c r="N938" s="3">
         <v>996137666</v>
       </c>
-      <c r="O938" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="939" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="939" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A939" s="1">
         <v>6552</v>
       </c>
@@ -44066,7 +43940,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="940" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A940" s="1">
         <v>6567</v>
       </c>
@@ -44107,7 +43981,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="941" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A941" s="1">
         <v>6571</v>
       </c>
@@ -44148,7 +44022,7 @@
         <v>36951406</v>
       </c>
     </row>
-    <row r="942" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A942" s="1">
         <v>6575</v>
       </c>
@@ -44189,7 +44063,7 @@
         <v>36951155</v>
       </c>
     </row>
-    <row r="943" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A943" s="1">
         <v>6576</v>
       </c>
@@ -44230,7 +44104,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="944" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A944" s="1">
         <v>6578</v>
       </c>
@@ -44271,7 +44145,7 @@
         <v>991369748</v>
       </c>
     </row>
-    <row r="945" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A945" s="1">
         <v>6579</v>
       </c>
@@ -44309,16 +44183,13 @@
         <v>362.4</v>
       </c>
       <c r="M945" t="s">
-        <v>2</v>
+        <v>1172</v>
       </c>
       <c r="N945" s="3">
         <v>996777984</v>
       </c>
-      <c r="O945" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="946" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="946" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A946" s="1">
         <v>6580</v>
       </c>
@@ -44359,7 +44230,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="947" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A947" s="1">
         <v>6591</v>
       </c>
@@ -44400,7 +44271,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="948" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A948" s="1">
         <v>6592</v>
       </c>
@@ -44441,7 +44312,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="949" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A949" s="1">
         <v>6603</v>
       </c>
@@ -44479,7 +44350,7 @@
         <v>27.31</v>
       </c>
     </row>
-    <row r="950" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A950" s="1">
         <v>6609</v>
       </c>
@@ -44520,7 +44391,7 @@
         <v>998819509</v>
       </c>
     </row>
-    <row r="951" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A951" s="1">
         <v>6621</v>
       </c>
@@ -44561,7 +44432,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="952" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A952" s="1">
         <v>6622</v>
       </c>
@@ -44602,7 +44473,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="953" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A953" s="1">
         <v>6634</v>
       </c>
@@ -44643,7 +44514,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="954" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A954" s="1">
         <v>6635</v>
       </c>
@@ -44684,7 +44555,7 @@
         <v>96080116</v>
       </c>
     </row>
-    <row r="955" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A955" s="1">
         <v>6636</v>
       </c>
@@ -44725,7 +44596,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="956" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A956" s="1">
         <v>6644</v>
       </c>
@@ -44766,7 +44637,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="957" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A957" s="1">
         <v>6645</v>
       </c>
@@ -44807,7 +44678,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="958" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A958" s="1">
         <v>6648</v>
       </c>
@@ -44848,7 +44719,7 @@
         <v>99390398</v>
       </c>
     </row>
-    <row r="959" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A959" s="1">
         <v>6667</v>
       </c>
@@ -44889,7 +44760,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="960" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A960" s="1">
         <v>6668</v>
       </c>
@@ -44930,7 +44801,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="961" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A961" s="1">
         <v>6672</v>
       </c>
@@ -44968,7 +44839,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="962" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A962" s="1">
         <v>6678</v>
       </c>
@@ -45006,16 +44877,13 @@
         <v>621.6</v>
       </c>
       <c r="M962" t="s">
-        <v>2</v>
+        <v>1129</v>
       </c>
       <c r="N962" s="3">
         <v>11111111111</v>
       </c>
-      <c r="O962" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="963" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="963" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A963" s="1">
         <v>6681</v>
       </c>
@@ -45056,7 +44924,7 @@
         <v>36141245</v>
       </c>
     </row>
-    <row r="964" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A964" s="1">
         <v>6685</v>
       </c>
@@ -45097,7 +44965,7 @@
         <v>36951155</v>
       </c>
     </row>
-    <row r="965" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A965" s="1">
         <v>6694</v>
       </c>
@@ -45138,7 +45006,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="966" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A966" s="1">
         <v>6696</v>
       </c>
@@ -45176,16 +45044,13 @@
         <v>4370.3500000000004</v>
       </c>
       <c r="M966" t="s">
-        <v>2</v>
+        <v>1208</v>
       </c>
       <c r="N966" s="3" t="s">
         <v>1209</v>
       </c>
-      <c r="O966" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="967" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="967" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A967" s="1">
         <v>6697</v>
       </c>
@@ -45226,7 +45091,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="968" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A968" s="1">
         <v>6698</v>
       </c>
@@ -45267,7 +45132,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="969" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A969" s="1">
         <v>6699</v>
       </c>
@@ -45308,7 +45173,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="970" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A970" s="1">
         <v>6700</v>
       </c>
@@ -45349,7 +45214,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="971" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A971" s="1">
         <v>6702</v>
       </c>
@@ -45390,7 +45255,7 @@
         <v>999714427</v>
       </c>
     </row>
-    <row r="972" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A972" s="1">
         <v>6703</v>
       </c>
@@ -45428,16 +45293,13 @@
         <v>1269.0999999999999</v>
       </c>
       <c r="M972" t="s">
-        <v>2</v>
+        <v>1221</v>
       </c>
       <c r="N972" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="O972" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="973" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="973" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A973" s="1">
         <v>6714</v>
       </c>
@@ -45478,7 +45340,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="974" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A974" s="1">
         <v>6715</v>
       </c>
@@ -45519,7 +45381,7 @@
         <v>96662216</v>
       </c>
     </row>
-    <row r="975" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A975" s="1">
         <v>6718</v>
       </c>
@@ -45560,7 +45422,7 @@
         <v>95372306</v>
       </c>
     </row>
-    <row r="976" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A976" s="1">
         <v>6729</v>
       </c>
@@ -45601,7 +45463,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="977" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A977" s="1">
         <v>6734</v>
       </c>
@@ -45642,7 +45504,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="978" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A978" s="1">
         <v>6735</v>
       </c>
@@ -45683,7 +45545,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="979" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A979" s="1">
         <v>6736</v>
       </c>
@@ -45724,7 +45586,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="980" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A980" s="1">
         <v>6737</v>
       </c>
@@ -45765,7 +45627,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="981" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A981" s="1">
         <v>6745</v>
       </c>
@@ -45806,7 +45668,7 @@
         <v>99351011</v>
       </c>
     </row>
-    <row r="982" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A982" s="1">
         <v>6748</v>
       </c>
@@ -45847,7 +45709,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="983" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A983" s="1">
         <v>6754</v>
       </c>
@@ -45888,7 +45750,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="984" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A984" s="1">
         <v>6756</v>
       </c>
@@ -45929,7 +45791,7 @@
         <v>99340151</v>
       </c>
     </row>
-    <row r="985" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A985" s="1">
         <v>6757</v>
       </c>
@@ -45970,7 +45832,7 @@
         <v>999321098</v>
       </c>
     </row>
-    <row r="986" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A986" s="1">
         <v>6768</v>
       </c>
@@ -46008,7 +45870,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="987" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A987" s="1">
         <v>6772</v>
       </c>
@@ -46049,7 +45911,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="988" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A988" s="1">
         <v>6776</v>
       </c>
@@ -46087,16 +45949,13 @@
         <v>375</v>
       </c>
       <c r="M988" t="s">
-        <v>2</v>
+        <v>1249</v>
       </c>
       <c r="N988" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="O988" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="989" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="989" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A989" s="1">
         <v>6778</v>
       </c>
@@ -46134,13 +45993,10 @@
         <v>823.2</v>
       </c>
       <c r="M989" t="s">
-        <v>2</v>
-      </c>
-      <c r="O989" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="990" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A990" s="1">
         <v>6786</v>
       </c>
@@ -46181,7 +46037,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="991" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A991" s="1">
         <v>6787</v>
       </c>
@@ -46222,7 +46078,7 @@
         <v>998984895</v>
       </c>
     </row>
-    <row r="992" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A992" s="1">
         <v>6799</v>
       </c>
@@ -46263,7 +46119,7 @@
         <v>995606128</v>
       </c>
     </row>
-    <row r="993" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A993" s="1">
         <v>6800</v>
       </c>
@@ -46304,7 +46160,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="994" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A994" s="1">
         <v>6801</v>
       </c>
@@ -46345,7 +46201,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="995" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A995" s="1">
         <v>6807</v>
       </c>
@@ -46386,7 +46242,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="996" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A996" s="1">
         <v>6815</v>
       </c>
@@ -46427,7 +46283,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="997" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A997" s="1">
         <v>6816</v>
       </c>
@@ -46468,7 +46324,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="998" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A998" s="1">
         <v>6818</v>
       </c>
@@ -46509,7 +46365,7 @@
         <v>999896607</v>
       </c>
     </row>
-    <row r="999" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A999" s="1">
         <v>6821</v>
       </c>
@@ -46550,7 +46406,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="1000" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1000" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1000" s="1">
         <v>6825</v>
       </c>
@@ -46591,7 +46447,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="1001" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1001" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1001" s="1">
         <v>6828</v>
       </c>
@@ -46632,7 +46488,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="1002" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1002" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1002" s="1">
         <v>6829</v>
       </c>
@@ -46673,7 +46529,7 @@
         <v>81240221</v>
       </c>
     </row>
-    <row r="1003" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1003" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1003" s="1">
         <v>6831</v>
       </c>
@@ -46711,16 +46567,13 @@
         <v>1260</v>
       </c>
       <c r="M1003" t="s">
-        <v>2</v>
+        <v>1277</v>
       </c>
       <c r="N1003" s="3">
         <v>51991592246</v>
       </c>
-      <c r="O1003" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1004" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1004" s="1">
         <v>6837</v>
       </c>
@@ -46761,7 +46614,7 @@
         <v>96932570</v>
       </c>
     </row>
-    <row r="1005" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1005" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1005" s="1">
         <v>6838</v>
       </c>
@@ -46802,7 +46655,7 @@
         <v>96783610</v>
       </c>
     </row>
-    <row r="1006" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1006" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1006" s="1">
         <v>6839</v>
       </c>
@@ -46843,7 +46696,7 @@
         <v>98559790</v>
       </c>
     </row>
-    <row r="1007" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1007" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1007" s="1">
         <v>6847</v>
       </c>
@@ -46884,7 +46737,7 @@
         <v>99135671</v>
       </c>
     </row>
-    <row r="1008" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1008" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1008" s="1">
         <v>6848</v>
       </c>
@@ -46925,7 +46778,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="1009" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1009" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1009" s="1">
         <v>6849</v>
       </c>
@@ -46966,7 +46819,7 @@
         <v>96183961</v>
       </c>
     </row>
-    <row r="1010" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1010" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1010" s="1">
         <v>6850</v>
       </c>
@@ -47007,7 +46860,7 @@
         <v>97003406</v>
       </c>
     </row>
-    <row r="1011" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1011" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1011" s="1">
         <v>6851</v>
       </c>
@@ -47048,7 +46901,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="1012" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1012" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1012" s="1">
         <v>6860</v>
       </c>
@@ -47089,7 +46942,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="1013" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1013" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1013" s="1">
         <v>6862</v>
       </c>
@@ -47130,7 +46983,7 @@
         <v>998255646</v>
       </c>
     </row>
-    <row r="1014" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1014" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1014" s="1">
         <v>6866</v>
       </c>
@@ -47168,16 +47021,13 @@
         <v>1881.6</v>
       </c>
       <c r="M1014" t="s">
-        <v>2</v>
+        <v>1293</v>
       </c>
       <c r="N1014" s="3" t="s">
         <v>1294</v>
       </c>
-      <c r="O1014" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1015" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1015" s="1">
         <v>6869</v>
       </c>
@@ -47215,16 +47065,13 @@
         <v>1008</v>
       </c>
       <c r="M1015" t="s">
-        <v>2</v>
+        <v>1297</v>
       </c>
       <c r="N1015" s="3">
         <v>999999999</v>
       </c>
-      <c r="O1015" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1016" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1016" s="1">
         <v>6870</v>
       </c>
@@ -47262,16 +47109,13 @@
         <v>3830.4</v>
       </c>
       <c r="M1016" t="s">
-        <v>2</v>
+        <v>1300</v>
       </c>
       <c r="N1016" s="3">
         <v>55999728115</v>
       </c>
-      <c r="O1016" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1017" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1017" s="1">
         <v>6873</v>
       </c>
@@ -47312,7 +47156,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="1018" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1018" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1018" s="1">
         <v>6874</v>
       </c>
@@ -47353,7 +47197,7 @@
         <v>96632940</v>
       </c>
     </row>
-    <row r="1019" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1019" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1019" s="1">
         <v>6877</v>
       </c>
@@ -47394,7 +47238,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="1020" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1020" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1020" s="1">
         <v>6886</v>
       </c>
@@ -47432,16 +47276,13 @@
         <v>14229.33</v>
       </c>
       <c r="M1020" t="s">
-        <v>2</v>
+        <v>1306</v>
       </c>
       <c r="N1020" s="3">
         <v>99392376</v>
       </c>
-      <c r="O1020" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1021" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1021" s="1">
         <v>6888</v>
       </c>
@@ -47482,7 +47323,7 @@
         <v>98719623</v>
       </c>
     </row>
-    <row r="1022" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1022" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1022" s="1">
         <v>6891</v>
       </c>
@@ -47523,7 +47364,7 @@
         <v>980569120</v>
       </c>
     </row>
-    <row r="1023" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1023" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1023" s="1">
         <v>6892</v>
       </c>
@@ -47564,7 +47405,7 @@
         <v>91097066</v>
       </c>
     </row>
-    <row r="1024" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1024" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1024" s="1">
         <v>6893</v>
       </c>
@@ -48911,7 +48752,7 @@
         <v>96560859</v>
       </c>
     </row>
-    <row r="1057" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1057" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1057" s="1">
         <v>6967</v>
       </c>
@@ -48952,7 +48793,7 @@
         <v>98496164</v>
       </c>
     </row>
-    <row r="1058" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1058" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1058" s="1">
         <v>6968</v>
       </c>
@@ -48993,7 +48834,7 @@
         <v>96686078</v>
       </c>
     </row>
-    <row r="1059" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1059" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1059" s="1">
         <v>6969</v>
       </c>
@@ -49034,7 +48875,7 @@
         <v>996544599</v>
       </c>
     </row>
-    <row r="1060" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1060" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1060" s="1">
         <v>6974</v>
       </c>
@@ -49075,7 +48916,7 @@
         <v>36451723</v>
       </c>
     </row>
-    <row r="1061" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1061" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1061" s="1">
         <v>6975</v>
       </c>
@@ -49116,7 +48957,7 @@
         <v>96656511</v>
       </c>
     </row>
-    <row r="1062" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1062" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1062" s="1">
         <v>6977</v>
       </c>
@@ -49154,16 +48995,13 @@
         <v>1293.5999999999999</v>
       </c>
       <c r="M1062" t="s">
-        <v>2</v>
+        <v>1357</v>
       </c>
       <c r="N1062" s="3">
         <v>99662902</v>
       </c>
-      <c r="O1062" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1063" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1063" s="1">
         <v>6980</v>
       </c>
@@ -49204,7 +49042,7 @@
         <v>98660536</v>
       </c>
     </row>
-    <row r="1064" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1064" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1064" s="1">
         <v>6981</v>
       </c>
@@ -49245,7 +49083,7 @@
         <v>99179465</v>
       </c>
     </row>
-    <row r="1065" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1065" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1065" s="1">
         <v>6982</v>
       </c>
@@ -49286,7 +49124,7 @@
         <v>99491653.363389999</v>
       </c>
     </row>
-    <row r="1066" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1066" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1066" s="1">
         <v>6984</v>
       </c>
@@ -49327,7 +49165,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="1067" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1067" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1067" s="1">
         <v>6986</v>
       </c>
@@ -49368,7 +49206,7 @@
         <v>96830344</v>
       </c>
     </row>
-    <row r="1068" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1068" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1068" s="1">
         <v>6987</v>
       </c>
@@ -49409,7 +49247,7 @@
         <v>36951357</v>
       </c>
     </row>
-    <row r="1069" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1069" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1069" s="1">
         <v>6988</v>
       </c>
@@ -49450,7 +49288,7 @@
         <v>98559778</v>
       </c>
     </row>
-    <row r="1070" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1070" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1070" s="1">
         <v>6989</v>
       </c>
@@ -49491,7 +49329,7 @@
         <v>99519942</v>
       </c>
     </row>
-    <row r="1071" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1071" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1071" s="1">
         <v>6990</v>
       </c>
@@ -49532,7 +49370,7 @@
         <v>96278352</v>
       </c>
     </row>
-    <row r="1072" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1072" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1072" s="1">
         <v>6992</v>
       </c>
@@ -49573,7 +49411,7 @@
         <v>98554504</v>
       </c>
     </row>
-    <row r="1073" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1073" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1073" s="1">
         <v>6993</v>
       </c>
@@ -49611,16 +49449,13 @@
         <v>3824.32</v>
       </c>
       <c r="M1073" t="s">
-        <v>2</v>
+        <v>1371</v>
       </c>
       <c r="N1073" s="3" t="s">
         <v>1372</v>
       </c>
-      <c r="O1073" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1074" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1074" s="1">
         <v>6995</v>
       </c>
@@ -49661,7 +49496,7 @@
         <v>997317992</v>
       </c>
     </row>
-    <row r="1075" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1075" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1075" s="1">
         <v>6996</v>
       </c>
@@ -49702,7 +49537,7 @@
         <v>96213633</v>
       </c>
     </row>
-    <row r="1076" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1076" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1076" s="1">
         <v>6997</v>
       </c>
@@ -49743,7 +49578,7 @@
         <v>36145039</v>
       </c>
     </row>
-    <row r="1077" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1077" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1077" s="1">
         <v>6998</v>
       </c>
@@ -49781,16 +49616,13 @@
         <v>681.66</v>
       </c>
       <c r="M1077" t="s">
-        <v>2</v>
+        <v>1377</v>
       </c>
       <c r="N1077" s="3" t="s">
         <v>1378</v>
       </c>
-      <c r="O1077" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1078" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1078" s="1">
         <v>7000</v>
       </c>
@@ -49831,7 +49663,7 @@
         <v>980483326</v>
       </c>
     </row>
-    <row r="1079" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1079" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1079" s="1">
         <v>7005</v>
       </c>
@@ -49872,7 +49704,7 @@
         <v>99584076</v>
       </c>
     </row>
-    <row r="1080" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1080" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1080" s="1">
         <v>7006</v>
       </c>
@@ -49910,16 +49742,13 @@
         <v>8232</v>
       </c>
       <c r="M1080" t="s">
-        <v>2</v>
+        <v>1383</v>
       </c>
       <c r="N1080" s="3">
         <v>1111111111</v>
       </c>
-      <c r="O1080" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1081" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1081" s="1">
         <v>7011</v>
       </c>
@@ -49957,7 +49786,7 @@
         <v>229.06</v>
       </c>
     </row>
-    <row r="1082" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1082" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1082" s="1">
         <v>7013</v>
       </c>
@@ -49998,7 +49827,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="1083" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1083" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1083" s="1">
         <v>7014</v>
       </c>
@@ -50039,7 +49868,7 @@
         <v>998261022</v>
       </c>
     </row>
-    <row r="1084" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1084" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1084" s="1">
         <v>7015</v>
       </c>
@@ -50080,7 +49909,7 @@
         <v>96124853</v>
       </c>
     </row>
-    <row r="1085" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1085" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1085" s="1">
         <v>7016</v>
       </c>
@@ -50121,7 +49950,7 @@
         <v>98024933</v>
       </c>
     </row>
-    <row r="1086" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1086" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1086" s="1">
         <v>7017</v>
       </c>
@@ -50162,7 +49991,7 @@
         <v>96113483</v>
       </c>
     </row>
-    <row r="1087" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1087" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1087" s="1">
         <v>7018</v>
       </c>
@@ -50203,7 +50032,7 @@
         <v>97257250</v>
       </c>
     </row>
-    <row r="1088" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1088" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1088" s="1">
         <v>7019</v>
       </c>
@@ -51553,7 +51382,7 @@
         <v>96986932</v>
       </c>
     </row>
-    <row r="1121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1121" s="1">
         <v>7081</v>
       </c>
@@ -51594,7 +51423,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="1122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1122" s="1">
         <v>7082</v>
       </c>
@@ -51635,7 +51464,7 @@
         <v>998488315</v>
       </c>
     </row>
-    <row r="1123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1123" s="1">
         <v>7085</v>
       </c>
@@ -51676,7 +51505,7 @@
         <v>96543670</v>
       </c>
     </row>
-    <row r="1124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1124" s="1">
         <v>7086</v>
       </c>
@@ -51717,7 +51546,7 @@
         <v>97219966.97044</v>
       </c>
     </row>
-    <row r="1125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1125" s="1">
         <v>7088</v>
       </c>
@@ -51758,7 +51587,7 @@
         <v>96561961</v>
       </c>
     </row>
-    <row r="1126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1126" s="1">
         <v>7097</v>
       </c>
@@ -51799,7 +51628,7 @@
         <v>36339013</v>
       </c>
     </row>
-    <row r="1127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1127" s="1">
         <v>7098</v>
       </c>
@@ -51837,16 +51666,13 @@
         <v>369.6</v>
       </c>
       <c r="M1127" t="s">
-        <v>2</v>
+        <v>1437</v>
       </c>
       <c r="N1127" s="3" t="s">
         <v>1438</v>
       </c>
-      <c r="O1127" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1128" s="1">
         <v>7099</v>
       </c>
@@ -51887,7 +51713,7 @@
         <v>5198426856</v>
       </c>
     </row>
-    <row r="1129" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1129" s="1">
         <v>7102</v>
       </c>
@@ -51925,13 +51751,10 @@
         <v>104.87</v>
       </c>
       <c r="M1129" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1129" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="1130" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1130" s="1">
         <v>7103</v>
       </c>
@@ -51972,7 +51795,7 @@
         <v>96975956</v>
       </c>
     </row>
-    <row r="1131" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1131" s="1">
         <v>7107</v>
       </c>
@@ -52013,7 +51836,7 @@
         <v>96641554</v>
       </c>
     </row>
-    <row r="1132" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1132" s="1">
         <v>7108</v>
       </c>
@@ -52054,7 +51877,7 @@
         <v>99350998</v>
       </c>
     </row>
-    <row r="1133" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1133" s="1">
         <v>7109</v>
       </c>
@@ -52095,7 +51918,7 @@
         <v>98640578</v>
       </c>
     </row>
-    <row r="1134" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1134" s="1">
         <v>7112</v>
       </c>
@@ -52136,7 +51959,7 @@
         <v>99132025</v>
       </c>
     </row>
-    <row r="1135" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1135" s="1">
         <v>7113</v>
       </c>
@@ -52177,7 +52000,7 @@
         <v>96830574</v>
       </c>
     </row>
-    <row r="1136" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1136" s="1">
         <v>7115</v>
       </c>
@@ -52218,7 +52041,7 @@
         <v>97188929</v>
       </c>
     </row>
-    <row r="1137" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1137" s="1">
         <v>7117</v>
       </c>
@@ -52259,7 +52082,7 @@
         <v>97253350</v>
       </c>
     </row>
-    <row r="1138" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1138" s="1">
         <v>7118</v>
       </c>
@@ -52300,7 +52123,7 @@
         <v>97427401</v>
       </c>
     </row>
-    <row r="1139" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1139" s="1">
         <v>7119</v>
       </c>
@@ -52341,7 +52164,7 @@
         <v>997593341</v>
       </c>
     </row>
-    <row r="1140" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1140" s="1">
         <v>7127</v>
       </c>
@@ -52382,7 +52205,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="1141" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1141" s="1">
         <v>7129</v>
       </c>
@@ -52423,7 +52246,7 @@
         <v>995030666</v>
       </c>
     </row>
-    <row r="1142" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1142" s="1">
         <v>7130</v>
       </c>
@@ -52464,7 +52287,7 @@
         <v>99390606</v>
       </c>
     </row>
-    <row r="1143" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1143" s="1">
         <v>7132</v>
       </c>
@@ -52505,7 +52328,7 @@
         <v>96389952</v>
       </c>
     </row>
-    <row r="1144" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1144" s="1">
         <v>7133</v>
       </c>
@@ -52546,7 +52369,7 @@
         <v>96256249</v>
       </c>
     </row>
-    <row r="1145" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1145" s="1">
         <v>7134</v>
       </c>
@@ -52587,7 +52410,7 @@
         <v>91256714</v>
       </c>
     </row>
-    <row r="1146" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1146" s="1">
         <v>7144</v>
       </c>
@@ -52628,7 +52451,7 @@
         <v>96988006</v>
       </c>
     </row>
-    <row r="1147" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1147" s="1">
         <v>7145</v>
       </c>
@@ -52669,7 +52492,7 @@
         <v>98992486</v>
       </c>
     </row>
-    <row r="1148" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1148" s="1">
         <v>7146</v>
       </c>
@@ -52710,7 +52533,7 @@
         <v>97335932</v>
       </c>
     </row>
-    <row r="1149" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1149" s="1">
         <v>7154</v>
       </c>
@@ -52751,7 +52574,7 @@
         <v>98583713</v>
       </c>
     </row>
-    <row r="1150" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1150" s="1">
         <v>7155</v>
       </c>
@@ -52792,7 +52615,7 @@
         <v>96127764</v>
       </c>
     </row>
-    <row r="1151" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1151" s="1">
         <v>7161</v>
       </c>
@@ -52830,16 +52653,13 @@
         <v>201.6</v>
       </c>
       <c r="M1151" t="s">
-        <v>2</v>
+        <v>1466</v>
       </c>
       <c r="N1151" s="3">
         <v>96983261</v>
       </c>
-      <c r="O1151" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="1152" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1152" s="1">
         <v>7162</v>
       </c>
@@ -52877,16 +52697,13 @@
         <v>52.79</v>
       </c>
       <c r="M1152" t="s">
-        <v>2</v>
+        <v>1468</v>
       </c>
       <c r="N1152" s="3">
         <v>996070729</v>
       </c>
-      <c r="O1152" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="1153" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1153" s="1">
         <v>7163</v>
       </c>
@@ -52927,7 +52744,7 @@
         <v>98596530</v>
       </c>
     </row>
-    <row r="1154" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1154" s="1">
         <v>7164</v>
       </c>
@@ -52968,7 +52785,7 @@
         <v>96310561.363470003</v>
       </c>
     </row>
-    <row r="1155" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1155" s="1">
         <v>7166</v>
       </c>
@@ -53009,7 +52826,7 @@
         <v>99270755</v>
       </c>
     </row>
-    <row r="1156" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1156" s="1">
         <v>7167</v>
       </c>
@@ -53050,7 +52867,7 @@
         <v>98481240</v>
       </c>
     </row>
-    <row r="1157" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1157" s="1">
         <v>7168</v>
       </c>
@@ -53091,7 +52908,7 @@
         <v>99093053</v>
       </c>
     </row>
-    <row r="1158" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1158" s="1">
         <v>7169</v>
       </c>
@@ -53132,7 +52949,7 @@
         <v>96610927</v>
       </c>
     </row>
-    <row r="1159" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1159" s="1">
         <v>7170</v>
       </c>
@@ -53173,7 +52990,7 @@
         <v>36358032</v>
       </c>
     </row>
-    <row r="1160" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1160" s="1">
         <v>7172</v>
       </c>
@@ -53214,7 +53031,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="1161" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1161" s="1">
         <v>7177</v>
       </c>
@@ -53255,7 +53072,7 @@
         <v>99074839</v>
       </c>
     </row>
-    <row r="1162" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1162" s="1">
         <v>7178</v>
       </c>
@@ -53296,7 +53113,7 @@
         <v>997330791</v>
       </c>
     </row>
-    <row r="1163" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1163" s="1">
         <v>7179</v>
       </c>
@@ -53337,7 +53154,7 @@
         <v>5196631732</v>
       </c>
     </row>
-    <row r="1164" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1164" s="1">
         <v>7181</v>
       </c>
@@ -53378,7 +53195,7 @@
         <v>98983965</v>
       </c>
     </row>
-    <row r="1165" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1165" s="1">
         <v>7182</v>
       </c>
@@ -53416,16 +53233,13 @@
         <v>8718.74</v>
       </c>
       <c r="M1165" t="s">
-        <v>2</v>
+        <v>843</v>
       </c>
       <c r="N1165" s="3">
         <v>91850173</v>
       </c>
-      <c r="O1165" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="1166" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1166" s="1">
         <v>7184</v>
       </c>
@@ -53466,7 +53280,7 @@
         <v>97053196</v>
       </c>
     </row>
-    <row r="1167" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1167" s="1">
         <v>7185</v>
       </c>
@@ -53507,7 +53321,7 @@
         <v>96163123</v>
       </c>
     </row>
-    <row r="1168" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1168" s="1">
         <v>7186</v>
       </c>
@@ -53548,7 +53362,7 @@
         <v>96325552</v>
       </c>
     </row>
-    <row r="1169" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1169" s="1">
         <v>7187</v>
       </c>
@@ -53589,7 +53403,7 @@
         <v>95463015</v>
       </c>
     </row>
-    <row r="1170" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1170" s="1">
         <v>7188</v>
       </c>
@@ -53630,7 +53444,7 @@
         <v>96817705</v>
       </c>
     </row>
-    <row r="1171" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1171" s="1">
         <v>7189</v>
       </c>
@@ -53671,7 +53485,7 @@
         <v>36382252</v>
       </c>
     </row>
-    <row r="1172" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1172" s="1">
         <v>7191</v>
       </c>
@@ -53712,7 +53526,7 @@
         <v>97553379</v>
       </c>
     </row>
-    <row r="1173" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1173" s="1">
         <v>7192</v>
       </c>
@@ -53753,7 +53567,7 @@
         <v>98272454</v>
       </c>
     </row>
-    <row r="1174" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1174" s="1">
         <v>7194</v>
       </c>
@@ -53794,7 +53608,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="1175" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1175" s="1">
         <v>7195</v>
       </c>
@@ -53835,7 +53649,7 @@
         <v>95528067</v>
       </c>
     </row>
-    <row r="1176" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1176" s="1">
         <v>7196</v>
       </c>
@@ -53876,7 +53690,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="1177" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1177" s="1">
         <v>7197</v>
       </c>
@@ -53917,7 +53731,7 @@
         <v>97646665</v>
       </c>
     </row>
-    <row r="1178" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1178" s="1">
         <v>7198</v>
       </c>
@@ -53958,7 +53772,7 @@
         <v>96899783</v>
       </c>
     </row>
-    <row r="1179" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1179" s="1">
         <v>7200</v>
       </c>
@@ -53999,7 +53813,7 @@
         <v>5599731874</v>
       </c>
     </row>
-    <row r="1180" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1180" s="1">
         <v>7203</v>
       </c>
@@ -54040,7 +53854,7 @@
         <v>99646902</v>
       </c>
     </row>
-    <row r="1181" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1181" s="1">
         <v>7204</v>
       </c>
@@ -54078,16 +53892,13 @@
         <v>2536.8000000000002</v>
       </c>
       <c r="M1181" t="s">
-        <v>2</v>
+        <v>1502</v>
       </c>
       <c r="N1181" s="3">
         <v>99958856</v>
       </c>
-      <c r="O1181" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1182" s="1">
         <v>7205</v>
       </c>
@@ -54128,7 +53939,7 @@
         <v>98417622</v>
       </c>
     </row>
-    <row r="1183" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1183" s="1">
         <v>7206</v>
       </c>
@@ -54169,7 +53980,7 @@
         <v>98555478</v>
       </c>
     </row>
-    <row r="1184" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1184" s="1">
         <v>7209</v>
       </c>
@@ -54210,7 +54021,7 @@
         <v>96763757</v>
       </c>
     </row>
-    <row r="1185" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1185" s="1">
         <v>7210</v>
       </c>
@@ -54251,7 +54062,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="1186" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1186" s="1">
         <v>7212</v>
       </c>
@@ -54292,7 +54103,7 @@
         <v>93049671</v>
       </c>
     </row>
-    <row r="1187" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1187" s="1">
         <v>7213</v>
       </c>
@@ -54333,7 +54144,7 @@
         <v>96525453</v>
       </c>
     </row>
-    <row r="1188" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1188" s="1">
         <v>7214</v>
       </c>
@@ -54374,7 +54185,7 @@
         <v>36181220</v>
       </c>
     </row>
-    <row r="1189" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1189" s="1">
         <v>7215</v>
       </c>
@@ -54415,7 +54226,7 @@
         <v>98782025</v>
       </c>
     </row>
-    <row r="1190" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1190" s="1">
         <v>7216</v>
       </c>
@@ -54456,7 +54267,7 @@
         <v>99081483</v>
       </c>
     </row>
-    <row r="1191" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1191" s="1">
         <v>7217</v>
       </c>
@@ -54497,7 +54308,7 @@
         <v>95307932</v>
       </c>
     </row>
-    <row r="1192" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1192" s="1">
         <v>7218</v>
       </c>
@@ -54538,7 +54349,7 @@
         <v>98943540</v>
       </c>
     </row>
-    <row r="1193" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1193" s="1">
         <v>7219</v>
       </c>
@@ -54579,7 +54390,7 @@
         <v>96860211</v>
       </c>
     </row>
-    <row r="1194" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1194" s="1">
         <v>7220</v>
       </c>
@@ -54617,7 +54428,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="1195" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1195" s="1">
         <v>7221</v>
       </c>
@@ -54658,7 +54469,7 @@
         <v>99417132</v>
       </c>
     </row>
-    <row r="1196" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1196" s="1">
         <v>7225</v>
       </c>
@@ -54696,16 +54507,13 @@
         <v>6148.8</v>
       </c>
       <c r="M1196" t="s">
-        <v>2</v>
+        <v>1519</v>
       </c>
       <c r="N1196" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="O1196" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1197" s="1">
         <v>7231</v>
       </c>
@@ -54746,7 +54554,7 @@
         <v>97256122</v>
       </c>
     </row>
-    <row r="1198" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1198" s="1">
         <v>7232</v>
       </c>
@@ -54787,7 +54595,7 @@
         <v>99179465</v>
       </c>
     </row>
-    <row r="1199" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1199" s="1">
         <v>7234</v>
       </c>
@@ -54828,7 +54636,7 @@
         <v>93534942</v>
       </c>
     </row>
-    <row r="1200" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1200" s="1">
         <v>7235</v>
       </c>
@@ -54869,7 +54677,7 @@
         <v>98926415</v>
       </c>
     </row>
-    <row r="1201" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1201" s="1">
         <v>7236</v>
       </c>
@@ -54907,16 +54715,13 @@
         <v>681.27</v>
       </c>
       <c r="M1201" t="s">
-        <v>2</v>
+        <v>1527</v>
       </c>
       <c r="N1201" s="3" t="s">
         <v>1528</v>
       </c>
-      <c r="O1201" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="1202" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1202" s="1">
         <v>7237</v>
       </c>
@@ -54954,7 +54759,7 @@
         <v>18.52</v>
       </c>
     </row>
-    <row r="1203" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1203" s="1">
         <v>7238</v>
       </c>
@@ -54995,7 +54800,7 @@
         <v>99444581</v>
       </c>
     </row>
-    <row r="1204" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1204" s="1">
         <v>7240</v>
       </c>
@@ -55036,7 +54841,7 @@
         <v>95074170</v>
       </c>
     </row>
-    <row r="1205" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1205" s="1">
         <v>7242</v>
       </c>
@@ -55077,7 +54882,7 @@
         <v>998302879</v>
       </c>
     </row>
-    <row r="1206" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1206" s="1">
         <v>7243</v>
       </c>
@@ -55118,7 +54923,7 @@
         <v>97413565</v>
       </c>
     </row>
-    <row r="1207" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1207" s="1">
         <v>7245</v>
       </c>
@@ -55159,7 +54964,7 @@
         <v>99161091</v>
       </c>
     </row>
-    <row r="1208" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1208" s="1">
         <v>7246</v>
       </c>
@@ -55200,7 +55005,7 @@
         <v>98788853</v>
       </c>
     </row>
-    <row r="1209" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1209" s="1">
         <v>7252</v>
       </c>
@@ -55241,7 +55046,7 @@
         <v>96743628</v>
       </c>
     </row>
-    <row r="1210" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1210" s="1">
         <v>7253</v>
       </c>
@@ -55282,7 +55087,7 @@
         <v>98751643</v>
       </c>
     </row>
-    <row r="1211" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1211" s="1">
         <v>7254</v>
       </c>
@@ -55323,7 +55128,7 @@
         <v>95938145</v>
       </c>
     </row>
-    <row r="1212" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1212" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1212" s="1">
         <v>7255</v>
       </c>
@@ -55364,7 +55169,7 @@
         <v>96677159</v>
       </c>
     </row>
-    <row r="1213" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1213" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1213" s="1">
         <v>7256</v>
       </c>
@@ -55405,7 +55210,7 @@
         <v>96968340</v>
       </c>
     </row>
-    <row r="1214" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1214" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1214" s="1">
         <v>7258</v>
       </c>
@@ -55446,7 +55251,7 @@
         <v>97036050</v>
       </c>
     </row>
-    <row r="1215" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1215" s="1">
         <v>7259</v>
       </c>
@@ -55487,7 +55292,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="1216" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1216" s="1">
         <v>7260</v>
       </c>
@@ -55528,7 +55333,7 @@
         <v>97256155</v>
       </c>
     </row>
-    <row r="1217" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1217" s="1">
         <v>7261</v>
       </c>
@@ -55569,7 +55374,7 @@
         <v>97344132</v>
       </c>
     </row>
-    <row r="1218" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1218" s="1">
         <v>7262</v>
       </c>
@@ -55607,16 +55412,13 @@
         <v>728.2</v>
       </c>
       <c r="M1218" t="s">
-        <v>2</v>
+        <v>1547</v>
       </c>
       <c r="N1218" s="3">
         <v>36451141.950159997</v>
       </c>
-      <c r="O1218" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="1219" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1219" s="1">
         <v>7265</v>
       </c>
@@ -55654,16 +55456,13 @@
         <v>16.8</v>
       </c>
       <c r="M1219" t="s">
-        <v>2</v>
+        <v>1549</v>
       </c>
       <c r="N1219" s="3">
         <v>99591329</v>
       </c>
-      <c r="O1219" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="1220" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1220" s="1">
         <v>7267</v>
       </c>
@@ -55704,7 +55503,7 @@
         <v>99722183</v>
       </c>
     </row>
-    <row r="1221" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1221" s="1">
         <v>7270</v>
       </c>
@@ -55742,16 +55541,13 @@
         <v>1295.3800000000001</v>
       </c>
       <c r="M1221" t="s">
-        <v>2</v>
+        <v>1552</v>
       </c>
       <c r="N1221" s="3" t="s">
         <v>1553</v>
       </c>
-      <c r="O1221" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="1222" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1222" s="1">
         <v>7276</v>
       </c>
@@ -55792,7 +55588,7 @@
         <v>98922972</v>
       </c>
     </row>
-    <row r="1223" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1223" s="1">
         <v>7280</v>
       </c>
@@ -55833,7 +55629,7 @@
         <v>36951247</v>
       </c>
     </row>
-    <row r="1224" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1224" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1224" s="1">
         <v>7283</v>
       </c>
@@ -55874,7 +55670,7 @@
         <v>99242575</v>
       </c>
     </row>
-    <row r="1225" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1225" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1225" s="1">
         <v>7288</v>
       </c>
@@ -55912,16 +55708,13 @@
         <v>134.4</v>
       </c>
       <c r="M1225" t="s">
-        <v>2</v>
+        <v>1558</v>
       </c>
       <c r="N1225" s="3" t="s">
         <v>1559</v>
       </c>
-      <c r="O1225" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="1226" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1226" s="1">
         <v>7294</v>
       </c>
@@ -55962,7 +55755,7 @@
         <v>97881409</v>
       </c>
     </row>
-    <row r="1227" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1227" s="1">
         <v>7297</v>
       </c>
@@ -56003,7 +55796,7 @@
         <v>98412696</v>
       </c>
     </row>
-    <row r="1228" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1228" s="1">
         <v>7299</v>
       </c>
@@ -56044,7 +55837,7 @@
         <v>99351108</v>
       </c>
     </row>
-    <row r="1229" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1229" s="1">
         <v>7305</v>
       </c>
@@ -56085,7 +55878,7 @@
         <v>95399203</v>
       </c>
     </row>
-    <row r="1230" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1230" s="1">
         <v>7307</v>
       </c>
@@ -56126,7 +55919,7 @@
         <v>997697826</v>
       </c>
     </row>
-    <row r="1231" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1231" s="1">
         <v>7312</v>
       </c>
@@ -56167,7 +55960,7 @@
         <v>97468196</v>
       </c>
     </row>
-    <row r="1232" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1232" s="1">
         <v>7313</v>
       </c>
@@ -56208,7 +56001,7 @@
         <v>97018534</v>
       </c>
     </row>
-    <row r="1233" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1233" s="1">
         <v>7316</v>
       </c>
@@ -56246,16 +56039,13 @@
         <v>151.19999999999999</v>
       </c>
       <c r="M1233" t="s">
-        <v>2</v>
+        <v>1441</v>
       </c>
       <c r="N1233" s="3" t="s">
         <v>1568</v>
       </c>
-      <c r="O1233" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="1234" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1234" s="1">
         <v>7319</v>
       </c>
@@ -56296,7 +56086,7 @@
         <v>96881726</v>
       </c>
     </row>
-    <row r="1235" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1235" s="1">
         <v>7320</v>
       </c>
@@ -56337,7 +56127,7 @@
         <v>996472883</v>
       </c>
     </row>
-    <row r="1236" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1236" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1236" s="1">
         <v>7321</v>
       </c>
@@ -56378,7 +56168,7 @@
         <v>99382195</v>
       </c>
     </row>
-    <row r="1237" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1237" s="1">
         <v>7325</v>
       </c>
@@ -56419,7 +56209,7 @@
         <v>96193378</v>
       </c>
     </row>
-    <row r="1238" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1238" s="1">
         <v>7327</v>
       </c>
@@ -56460,7 +56250,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="1239" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1239" s="1">
         <v>7328</v>
       </c>
@@ -56501,7 +56291,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="1240" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1240" s="1">
         <v>7331</v>
       </c>
@@ -56542,7 +56332,7 @@
         <v>96215220</v>
       </c>
     </row>
-    <row r="1241" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1241" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1241" s="1">
         <v>7332</v>
       </c>
@@ -56583,7 +56373,7 @@
         <v>97466936</v>
       </c>
     </row>
-    <row r="1242" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1242" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1242" s="1">
         <v>7333</v>
       </c>
@@ -56624,7 +56414,7 @@
         <v>96829108</v>
       </c>
     </row>
-    <row r="1243" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1243" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1243" s="1">
         <v>7335</v>
       </c>
@@ -56665,7 +56455,7 @@
         <v>96583171</v>
       </c>
     </row>
-    <row r="1244" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1244" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1244" s="1">
         <v>7337</v>
       </c>
@@ -56706,7 +56496,7 @@
         <v>999161289</v>
       </c>
     </row>
-    <row r="1245" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1245" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1245" s="1">
         <v>7351</v>
       </c>
@@ -56747,7 +56537,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="1246" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1246" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1246" s="1">
         <v>7353</v>
       </c>
@@ -56788,7 +56578,7 @@
         <v>997611947</v>
       </c>
     </row>
-    <row r="1247" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1247" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1247" s="1">
         <v>7354</v>
       </c>
@@ -56829,7 +56619,7 @@
         <v>36969728</v>
       </c>
     </row>
-    <row r="1248" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1248" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1248" s="1">
         <v>7363</v>
       </c>
@@ -56870,7 +56660,7 @@
         <v>36951360</v>
       </c>
     </row>
-    <row r="1249" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1249" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1249" s="1">
         <v>7364</v>
       </c>
@@ -56911,7 +56701,7 @@
         <v>999350995</v>
       </c>
     </row>
-    <row r="1250" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1250" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1250" s="1">
         <v>7370</v>
       </c>
@@ -56952,7 +56742,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="1251" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1251" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1251" s="1">
         <v>7372</v>
       </c>
@@ -56993,7 +56783,7 @@
         <v>999623553</v>
       </c>
     </row>
-    <row r="1252" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1252" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1252" s="1">
         <v>7373</v>
       </c>
@@ -57034,7 +56824,7 @@
         <v>36951226</v>
       </c>
     </row>
-    <row r="1253" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1253" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1253" s="1">
         <v>7374</v>
       </c>
@@ -57072,16 +56862,13 @@
         <v>40487.56</v>
       </c>
       <c r="M1253" t="s">
-        <v>2</v>
+        <v>1033</v>
       </c>
       <c r="N1253" s="3" t="s">
         <v>1593</v>
       </c>
-      <c r="O1253" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1254" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1254" s="1">
         <v>7375</v>
       </c>
@@ -57122,7 +56909,7 @@
         <v>999373246</v>
       </c>
     </row>
-    <row r="1255" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1255" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1255" s="1">
         <v>7378</v>
       </c>
@@ -57160,16 +56947,13 @@
         <v>33.6</v>
       </c>
       <c r="M1255" t="s">
-        <v>2</v>
+        <v>1596</v>
       </c>
       <c r="N1255" s="3">
         <v>998629158</v>
       </c>
-      <c r="O1255" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1256" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1256" s="1">
         <v>7379</v>
       </c>
@@ -57210,7 +56994,7 @@
         <v>997594567</v>
       </c>
     </row>
-    <row r="1257" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1257" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1257" s="1">
         <v>7380</v>
       </c>
@@ -57251,7 +57035,7 @@
         <v>999377329</v>
       </c>
     </row>
-    <row r="1258" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1258" s="1">
         <v>7381</v>
       </c>
@@ -57292,7 +57076,7 @@
         <v>996684215</v>
       </c>
     </row>
-    <row r="1259" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1259" s="1">
         <v>7382</v>
       </c>
@@ -57333,7 +57117,7 @@
         <v>997376966</v>
       </c>
     </row>
-    <row r="1260" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1260" s="1">
         <v>7383</v>
       </c>
@@ -57374,7 +57158,7 @@
         <v>995858709</v>
       </c>
     </row>
-    <row r="1261" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1261" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1261" s="1">
         <v>7384</v>
       </c>
@@ -57415,7 +57199,7 @@
         <v>996602833</v>
       </c>
     </row>
-    <row r="1262" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1262" s="1">
         <v>7385</v>
       </c>
@@ -57456,7 +57240,7 @@
         <v>36148082</v>
       </c>
     </row>
-    <row r="1263" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1263" s="1">
         <v>7391</v>
       </c>
@@ -57497,7 +57281,7 @@
         <v>999426454</v>
       </c>
     </row>
-    <row r="1264" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1264" s="1">
         <v>7392</v>
       </c>
@@ -57538,7 +57322,7 @@
         <v>997128112</v>
       </c>
     </row>
-    <row r="1265" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1265" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1265" s="1">
         <v>7393</v>
       </c>
@@ -57579,7 +57363,7 @@
         <v>996514055</v>
       </c>
     </row>
-    <row r="1266" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1266" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1266" s="1">
         <v>7394</v>
       </c>
@@ -57620,7 +57404,7 @@
         <v>998164815</v>
       </c>
     </row>
-    <row r="1267" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1267" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1267" s="1">
         <v>7395</v>
       </c>
@@ -57661,7 +57445,7 @@
         <v>998424338</v>
       </c>
     </row>
-    <row r="1268" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1268" s="1">
         <v>7398</v>
       </c>
@@ -57702,7 +57486,7 @@
         <v>996367601</v>
       </c>
     </row>
-    <row r="1269" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1269" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1269" s="1">
         <v>7399</v>
       </c>
@@ -57743,7 +57527,7 @@
         <v>995445335</v>
       </c>
     </row>
-    <row r="1270" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1270" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1270" s="1">
         <v>7402</v>
       </c>
@@ -57784,7 +57568,7 @@
         <v>998179211</v>
       </c>
     </row>
-    <row r="1271" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1271" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1271" s="1">
         <v>7403</v>
       </c>
@@ -57825,7 +57609,7 @@
         <v>999109599</v>
       </c>
     </row>
-    <row r="1272" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1272" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1272" s="1">
         <v>7405</v>
       </c>
@@ -57868,11 +57652,8 @@
       <c r="N1272" s="3">
         <v>999842658</v>
       </c>
-      <c r="O1272" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1273" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1273" s="1">
         <v>7406</v>
       </c>
@@ -57913,7 +57694,7 @@
         <v>997018524</v>
       </c>
     </row>
-    <row r="1274" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1274" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1274" s="1">
         <v>7407</v>
       </c>
@@ -57954,7 +57735,7 @@
         <v>996662182</v>
       </c>
     </row>
-    <row r="1275" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1275" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1275" s="1">
         <v>7410</v>
       </c>
@@ -57995,7 +57776,7 @@
         <v>996864731</v>
       </c>
     </row>
-    <row r="1276" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1276" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1276" s="1">
         <v>7411</v>
       </c>
@@ -58033,16 +57814,13 @@
         <v>2520</v>
       </c>
       <c r="M1276" t="s">
-        <v>2</v>
+        <v>1623</v>
       </c>
       <c r="N1276" s="3" t="s">
         <v>1624</v>
       </c>
-      <c r="O1276" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1277" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1277" s="1">
         <v>7416</v>
       </c>
@@ -58083,7 +57861,7 @@
         <v>998875868</v>
       </c>
     </row>
-    <row r="1278" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1278" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1278" s="1">
         <v>7417</v>
       </c>
@@ -58124,7 +57902,7 @@
         <v>51997254488</v>
       </c>
     </row>
-    <row r="1279" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1279" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1279" s="1">
         <v>7418</v>
       </c>
@@ -58165,7 +57943,7 @@
         <v>997018792</v>
       </c>
     </row>
-    <row r="1280" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1280" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1280" s="1">
         <v>7420</v>
       </c>
@@ -58203,16 +57981,13 @@
         <v>369.6</v>
       </c>
       <c r="M1280" t="s">
-        <v>2</v>
+        <v>1630</v>
       </c>
       <c r="N1280" s="3" t="s">
         <v>1631</v>
       </c>
-      <c r="O1280" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="1281" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1281" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1281" s="1">
         <v>7421</v>
       </c>
@@ -58250,16 +58025,13 @@
         <v>1293.5999999999999</v>
       </c>
       <c r="M1281" t="s">
-        <v>2</v>
+        <v>1633</v>
       </c>
       <c r="N1281" s="3" t="s">
         <v>1634</v>
       </c>
-      <c r="O1281" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="1282" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1282" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1282" s="1">
         <v>7426</v>
       </c>
@@ -58300,7 +58072,7 @@
         <v>996721779</v>
       </c>
     </row>
-    <row r="1283" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1283" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1283" s="1">
         <v>7428</v>
       </c>
@@ -58341,7 +58113,7 @@
         <v>999796515</v>
       </c>
     </row>
-    <row r="1284" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1284" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1284" s="1">
         <v>7431</v>
       </c>
@@ -58382,7 +58154,7 @@
         <v>999350463</v>
       </c>
     </row>
-    <row r="1285" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1285" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1285" s="1">
         <v>7432</v>
       </c>
@@ -58423,7 +58195,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="1286" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1286" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1286" s="1">
         <v>7433</v>
       </c>
@@ -58464,7 +58236,7 @@
         <v>996474536</v>
       </c>
     </row>
-    <row r="1287" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1287" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1287" s="1">
         <v>7434</v>
       </c>
@@ -58502,16 +58274,13 @@
         <v>1930.82</v>
       </c>
       <c r="M1287" t="s">
-        <v>2</v>
+        <v>1642</v>
       </c>
       <c r="N1287" s="3">
         <v>998893076</v>
       </c>
-      <c r="O1287" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1288" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1288" s="1">
         <v>7435</v>
       </c>
@@ -58552,7 +58321,7 @@
         <v>997071174</v>
       </c>
     </row>
-    <row r="1289" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1289" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1289" s="1">
         <v>7436</v>
       </c>
@@ -58590,16 +58359,13 @@
         <v>675.73</v>
       </c>
       <c r="M1289" t="s">
-        <v>2</v>
+        <v>1645</v>
       </c>
       <c r="N1289" s="3">
         <v>997109115</v>
       </c>
-      <c r="O1289" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="1290" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1290" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1290" s="1">
         <v>7437</v>
       </c>
@@ -58640,7 +58406,7 @@
         <v>998777079</v>
       </c>
     </row>
-    <row r="1291" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1291" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1291" s="1">
         <v>7438</v>
       </c>
@@ -58681,7 +58447,7 @@
         <v>996746506</v>
       </c>
     </row>
-    <row r="1292" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1292" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1292" s="1">
         <v>7441</v>
       </c>
@@ -58722,7 +58488,7 @@
         <v>36951016</v>
       </c>
     </row>
-    <row r="1293" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1293" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1293" s="1">
         <v>7443</v>
       </c>
@@ -58760,16 +58526,13 @@
         <v>672</v>
       </c>
       <c r="M1293" t="s">
-        <v>2</v>
+        <v>825</v>
       </c>
       <c r="N1293" s="3">
         <v>1111111111</v>
       </c>
-      <c r="O1293" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="1294" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1294" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1294" s="1">
         <v>7445</v>
       </c>
@@ -58810,7 +58573,7 @@
         <v>997335584</v>
       </c>
     </row>
-    <row r="1295" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1295" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1295" s="1">
         <v>7453</v>
       </c>
@@ -58848,16 +58611,13 @@
         <v>672</v>
       </c>
       <c r="M1295" t="s">
-        <v>2</v>
+        <v>1652</v>
       </c>
       <c r="N1295" s="3" t="s">
         <v>1653</v>
       </c>
-      <c r="O1295" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="1296" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1296" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1296" s="1">
         <v>7455</v>
       </c>
@@ -59554,7 +59314,7 @@
         <v>998084777</v>
       </c>
     </row>
-    <row r="1313" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1313" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1313" s="1">
         <v>7480</v>
       </c>
@@ -59595,7 +59355,7 @@
         <v>997146023</v>
       </c>
     </row>
-    <row r="1314" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1314" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1314" s="1">
         <v>7481</v>
       </c>
@@ -59636,7 +59396,7 @@
         <v>997186867</v>
       </c>
     </row>
-    <row r="1315" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1315" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1315" s="1">
         <v>7482</v>
       </c>
@@ -59677,7 +59437,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="1316" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1316" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1316" s="1">
         <v>7483</v>
       </c>
@@ -59718,7 +59478,7 @@
         <v>998046585</v>
       </c>
     </row>
-    <row r="1317" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1317" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1317" s="1">
         <v>7484</v>
       </c>
@@ -59759,7 +59519,7 @@
         <v>996761071</v>
       </c>
     </row>
-    <row r="1318" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1318" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1318" s="1">
         <v>7487</v>
       </c>
@@ -59800,7 +59560,7 @@
         <v>51998515723</v>
       </c>
     </row>
-    <row r="1319" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1319" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1319" s="1">
         <v>7488</v>
       </c>
@@ -59838,16 +59598,13 @@
         <v>2100</v>
       </c>
       <c r="M1319" t="s">
-        <v>2</v>
+        <v>1680</v>
       </c>
       <c r="N1319" s="3">
         <v>9999999999</v>
       </c>
-      <c r="O1319" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="1320" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1320" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1320" s="1">
         <v>7491</v>
       </c>
@@ -59888,7 +59645,7 @@
         <v>999430821</v>
       </c>
     </row>
-    <row r="1321" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1321" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1321" s="1">
         <v>7495</v>
       </c>
@@ -59929,7 +59686,7 @@
         <v>997802235</v>
       </c>
     </row>
-    <row r="1322" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1322" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1322" s="1">
         <v>7497</v>
       </c>
@@ -59970,7 +59727,7 @@
         <v>36451889</v>
       </c>
     </row>
-    <row r="1323" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1323" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1323" s="1">
         <v>7498</v>
       </c>
@@ -60011,7 +59768,7 @@
         <v>996640849</v>
       </c>
     </row>
-    <row r="1324" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1324" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1324" s="1">
         <v>7499</v>
       </c>
@@ -60052,7 +59809,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="1325" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1325" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1325" s="1">
         <v>7501</v>
       </c>
@@ -60090,16 +59847,13 @@
         <v>28.37</v>
       </c>
       <c r="M1325" t="s">
-        <v>2</v>
+        <v>1688</v>
       </c>
       <c r="N1325" s="3">
         <v>996597388</v>
       </c>
-      <c r="O1325" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="1326" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1326" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1326" s="1">
         <v>7502</v>
       </c>
@@ -60140,7 +59894,7 @@
         <v>996724246</v>
       </c>
     </row>
-    <row r="1327" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1327" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1327" s="1">
         <v>7504</v>
       </c>
@@ -60181,7 +59935,7 @@
         <v>999080869</v>
       </c>
     </row>
-    <row r="1328" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1328" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1328" s="1">
         <v>7505</v>
       </c>
@@ -60222,7 +59976,7 @@
         <v>999270909</v>
       </c>
     </row>
-    <row r="1329" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1329" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1329" s="1">
         <v>7509</v>
       </c>
@@ -60263,7 +60017,7 @@
         <v>996228709</v>
       </c>
     </row>
-    <row r="1330" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1330" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1330" s="1">
         <v>7512</v>
       </c>
@@ -60301,16 +60055,13 @@
         <v>48122.95</v>
       </c>
       <c r="M1330" t="s">
-        <v>2</v>
+        <v>1695</v>
       </c>
       <c r="N1330" s="3">
         <v>5499024324</v>
       </c>
-      <c r="O1330" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="1331" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1331" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1331" s="1">
         <v>7513</v>
       </c>
@@ -60351,7 +60102,7 @@
         <v>995930585</v>
       </c>
     </row>
-    <row r="1332" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1332" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1332" s="1">
         <v>7514</v>
       </c>
@@ -60392,7 +60143,7 @@
         <v>997271286</v>
       </c>
     </row>
-    <row r="1333" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1333" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1333" s="1">
         <v>7515</v>
       </c>
@@ -60433,7 +60184,7 @@
         <v>999999999999</v>
       </c>
     </row>
-    <row r="1334" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1334" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1334" s="1">
         <v>7516</v>
       </c>
@@ -60471,16 +60222,13 @@
         <v>134.4</v>
       </c>
       <c r="M1334" t="s">
-        <v>2</v>
+        <v>1700</v>
       </c>
       <c r="N1334" s="3">
         <v>51999111289</v>
       </c>
-      <c r="O1334" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="1335" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1335" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1335" s="1">
         <v>7517</v>
       </c>
@@ -60518,16 +60266,13 @@
         <v>1680</v>
       </c>
       <c r="M1335" t="s">
-        <v>2</v>
+        <v>1703</v>
       </c>
       <c r="N1335" s="3">
         <v>55999962871</v>
       </c>
-      <c r="O1335" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="1336" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1336" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1336" s="1">
         <v>7518</v>
       </c>
@@ -60568,7 +60313,7 @@
         <v>996631093</v>
       </c>
     </row>
-    <row r="1337" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1337" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1337" s="1">
         <v>7519</v>
       </c>
@@ -60609,7 +60354,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="1338" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1338" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1338" s="1">
         <v>7522</v>
       </c>
@@ -60650,7 +60395,7 @@
         <v>996980688</v>
       </c>
     </row>
-    <row r="1339" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1339" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1339" s="1">
         <v>7524</v>
       </c>
@@ -60691,7 +60436,7 @@
         <v>996114435</v>
       </c>
     </row>
-    <row r="1340" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1340" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1340" s="1">
         <v>7528</v>
       </c>
@@ -60732,7 +60477,7 @@
         <v>996057063</v>
       </c>
     </row>
-    <row r="1341" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1341" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1341" s="1">
         <v>7529</v>
       </c>
@@ -60773,7 +60518,7 @@
         <v>995623131</v>
       </c>
     </row>
-    <row r="1342" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1342" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1342" s="1">
         <v>7530</v>
       </c>
@@ -60814,7 +60559,7 @@
         <v>998835217</v>
       </c>
     </row>
-    <row r="1343" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1343" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1343" s="1">
         <v>7531</v>
       </c>
@@ -60855,7 +60600,7 @@
         <v>997848717</v>
       </c>
     </row>
-    <row r="1344" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1344" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1344" s="1">
         <v>7532</v>
       </c>
@@ -60893,16 +60638,13 @@
         <v>1041.5999999999999</v>
       </c>
       <c r="M1344" t="s">
-        <v>2</v>
+        <v>1715</v>
       </c>
       <c r="N1344" s="3">
         <v>54999982908</v>
       </c>
-      <c r="O1344" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="1345" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1345" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1345" s="1">
         <v>7534</v>
       </c>
@@ -60943,7 +60685,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="1346" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1346" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1346" s="1">
         <v>7535</v>
       </c>
@@ -60984,7 +60726,7 @@
         <v>999804436</v>
       </c>
     </row>
-    <row r="1347" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1347" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1347" s="1">
         <v>7536</v>
       </c>
@@ -61025,7 +60767,7 @@
         <v>999533790</v>
       </c>
     </row>
-    <row r="1348" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1348" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1348" s="1">
         <v>7537</v>
       </c>
@@ -61066,7 +60808,7 @@
         <v>998277844</v>
       </c>
     </row>
-    <row r="1349" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1349" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1349" s="1">
         <v>7538</v>
       </c>
@@ -61107,7 +60849,7 @@
         <v>997028838</v>
       </c>
     </row>
-    <row r="1350" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1350" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1350" s="1">
         <v>7539</v>
       </c>
@@ -61148,7 +60890,7 @@
         <v>998616082</v>
       </c>
     </row>
-    <row r="1351" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1351" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1351" s="1">
         <v>7541</v>
       </c>
@@ -61186,16 +60928,13 @@
         <v>268.8</v>
       </c>
       <c r="M1351" t="s">
-        <v>2</v>
+        <v>1724</v>
       </c>
       <c r="N1351" s="3" t="s">
         <v>1725</v>
       </c>
-      <c r="O1351" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="1352" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1352" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1352" s="1">
         <v>7543</v>
       </c>
@@ -61233,16 +60972,13 @@
         <v>840</v>
       </c>
       <c r="M1352" t="s">
-        <v>2</v>
+        <v>1727</v>
       </c>
       <c r="N1352" s="3">
         <v>530999522682</v>
       </c>
-      <c r="O1352" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="1353" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1353" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1353" s="1">
         <v>7544</v>
       </c>
@@ -61283,7 +61019,7 @@
         <v>9984710407</v>
       </c>
     </row>
-    <row r="1354" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1354" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1354" s="1">
         <v>7546</v>
       </c>
@@ -61324,7 +61060,7 @@
         <v>51998255715</v>
       </c>
     </row>
-    <row r="1355" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1355" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1355" s="1">
         <v>7547</v>
       </c>
@@ -61365,7 +61101,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="1356" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1356" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1356" s="1">
         <v>7548</v>
       </c>
@@ -61406,7 +61142,7 @@
         <v>998590232</v>
       </c>
     </row>
-    <row r="1357" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1357" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1357" s="1">
         <v>7550</v>
       </c>
@@ -61447,7 +61183,7 @@
         <v>997153615</v>
       </c>
     </row>
-    <row r="1358" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1358" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1358" s="1">
         <v>7551</v>
       </c>
@@ -61485,16 +61221,13 @@
         <v>168</v>
       </c>
       <c r="M1358" t="s">
-        <v>2</v>
+        <v>1735</v>
       </c>
       <c r="N1358" s="3">
         <v>997748069</v>
       </c>
-      <c r="O1358" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="1359" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1359" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1359" s="1">
         <v>7552</v>
       </c>
@@ -61535,7 +61268,7 @@
         <v>980251619</v>
       </c>
     </row>
-    <row r="1360" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1360" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1360" s="1">
         <v>7553</v>
       </c>
@@ -61576,7 +61309,7 @@
         <v>998130427</v>
       </c>
     </row>
-    <row r="1361" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1361" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1361" s="1">
         <v>7554</v>
       </c>
@@ -61617,7 +61350,7 @@
         <v>996758833</v>
       </c>
     </row>
-    <row r="1362" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1362" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1362" s="1">
         <v>7555</v>
       </c>
@@ -61658,7 +61391,7 @@
         <v>997124084</v>
       </c>
     </row>
-    <row r="1363" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1363" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1363" s="1">
         <v>7556</v>
       </c>
@@ -61699,7 +61432,7 @@
         <v>999055136</v>
       </c>
     </row>
-    <row r="1364" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1364" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1364" s="1">
         <v>7557</v>
       </c>
@@ -61740,7 +61473,7 @@
         <v>995343635</v>
       </c>
     </row>
-    <row r="1365" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1365" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1365" s="1">
         <v>7558</v>
       </c>
@@ -61781,7 +61514,7 @@
         <v>998284160</v>
       </c>
     </row>
-    <row r="1366" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1366" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1366" s="1">
         <v>7559</v>
       </c>
@@ -61819,16 +61552,13 @@
         <v>3074.4</v>
       </c>
       <c r="M1366" t="s">
-        <v>2</v>
+        <v>1745</v>
       </c>
       <c r="N1366" s="3">
         <v>5499380956</v>
       </c>
-      <c r="O1366" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="1367" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1367" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1367" s="1">
         <v>7560</v>
       </c>
@@ -61866,16 +61596,13 @@
         <v>3158.4</v>
       </c>
       <c r="M1367" t="s">
-        <v>2</v>
+        <v>1745</v>
       </c>
       <c r="N1367" s="3">
         <v>54999153763</v>
       </c>
-      <c r="O1367" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="1368" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1368" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1368" s="1">
         <v>7561</v>
       </c>
@@ -61916,7 +61643,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="1369" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1369" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1369" s="1">
         <v>7562</v>
       </c>
@@ -61957,7 +61684,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="1370" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1370" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1370" s="1">
         <v>7563</v>
       </c>
@@ -61998,7 +61725,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="1371" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1371" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1371" s="1">
         <v>7566</v>
       </c>
@@ -62039,7 +61766,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="1372" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1372" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1372" s="1">
         <v>7567</v>
       </c>
@@ -62080,7 +61807,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="1373" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1373" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1373" s="1">
         <v>7568</v>
       </c>
@@ -62118,16 +61845,13 @@
         <v>739.2</v>
       </c>
       <c r="M1373" t="s">
-        <v>2</v>
+        <v>1695</v>
       </c>
       <c r="N1373" s="3">
         <v>11111111111111</v>
       </c>
-      <c r="O1373" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="1374" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1374" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1374" s="1">
         <v>7569</v>
       </c>
@@ -62168,7 +61892,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="1375" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1375" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1375" s="1">
         <v>7570</v>
       </c>
@@ -62209,7 +61933,7 @@
         <v>999390616</v>
       </c>
     </row>
-    <row r="1376" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1376" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1376" s="1">
         <v>7571</v>
       </c>
@@ -62250,7 +61974,7 @@
         <v>997252365</v>
       </c>
     </row>
-    <row r="1377" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1377" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1377" s="1">
         <v>7573</v>
       </c>
@@ -62291,7 +62015,7 @@
         <v>981110725</v>
       </c>
     </row>
-    <row r="1378" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1378" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1378" s="1">
         <v>7574</v>
       </c>
@@ -62332,7 +62056,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="1379" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1379" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1379" s="1">
         <v>7577</v>
       </c>
@@ -62373,7 +62097,7 @@
         <v>996480358</v>
       </c>
     </row>
-    <row r="1380" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1380" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1380" s="1">
         <v>7578</v>
       </c>
@@ -62414,7 +62138,7 @@
         <v>999908774</v>
       </c>
     </row>
-    <row r="1381" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1381" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1381" s="1">
         <v>7579</v>
       </c>
@@ -62455,7 +62179,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="1382" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1382" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1382" s="1">
         <v>7580</v>
       </c>
@@ -62493,16 +62217,13 @@
         <v>252</v>
       </c>
       <c r="M1382" t="s">
-        <v>2</v>
+        <v>1773</v>
       </c>
       <c r="N1382" s="3" t="s">
         <v>1774</v>
       </c>
-      <c r="O1382" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="1383" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1383" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1383" s="1">
         <v>7581</v>
       </c>
@@ -62543,7 +62264,7 @@
         <v>999001833</v>
       </c>
     </row>
-    <row r="1384" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1384" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1384" s="1">
         <v>7583</v>
       </c>
@@ -62584,7 +62305,7 @@
         <v>99823143</v>
       </c>
     </row>
-    <row r="1385" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1385" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1385" s="1">
         <v>7584</v>
       </c>
@@ -62625,7 +62346,7 @@
         <v>998193964</v>
       </c>
     </row>
-    <row r="1386" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1386" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1386" s="1">
         <v>7585</v>
       </c>
@@ -62666,7 +62387,7 @@
         <v>997436469</v>
       </c>
     </row>
-    <row r="1387" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1387" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1387" s="1">
         <v>7586</v>
       </c>
@@ -62704,16 +62425,13 @@
         <v>12462.26</v>
       </c>
       <c r="M1387" t="s">
-        <v>2</v>
+        <v>1780</v>
       </c>
       <c r="N1387" s="3">
         <v>997545688</v>
       </c>
-      <c r="O1387" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="1388" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1388" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1388" s="1">
         <v>7587</v>
       </c>
@@ -62754,7 +62472,7 @@
         <v>36147051</v>
       </c>
     </row>
-    <row r="1389" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1389" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1389" s="1">
         <v>7588</v>
       </c>
@@ -62795,7 +62513,7 @@
         <v>996548636</v>
       </c>
     </row>
-    <row r="1390" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1390" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1390" s="1">
         <v>7589</v>
       </c>
@@ -62836,7 +62554,7 @@
         <v>54999781836</v>
       </c>
     </row>
-    <row r="1391" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1391" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1391" s="1">
         <v>7590</v>
       </c>
@@ -62877,7 +62595,7 @@
         <v>995034465</v>
       </c>
     </row>
-    <row r="1392" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1392" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1392" s="1">
         <v>7591</v>
       </c>
@@ -62918,7 +62636,7 @@
         <v>9999590279</v>
       </c>
     </row>
-    <row r="1393" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1393" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1393" s="1">
         <v>7592</v>
       </c>
@@ -62959,7 +62677,7 @@
         <v>984955496</v>
       </c>
     </row>
-    <row r="1394" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1394" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1394" s="1">
         <v>7593</v>
       </c>
@@ -63000,7 +62718,7 @@
         <v>997417977</v>
       </c>
     </row>
-    <row r="1395" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1395" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1395" s="1">
         <v>7594</v>
       </c>
@@ -63041,7 +62759,7 @@
         <v>36147154</v>
       </c>
     </row>
-    <row r="1396" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1396" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1396" s="1">
         <v>7595</v>
       </c>
@@ -63082,7 +62800,7 @@
         <v>998255666</v>
       </c>
     </row>
-    <row r="1397" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1397" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1397" s="1">
         <v>7596</v>
       </c>
@@ -63120,16 +62838,13 @@
         <v>1780.8</v>
       </c>
       <c r="M1397" t="s">
-        <v>2</v>
+        <v>1792</v>
       </c>
       <c r="N1397" s="3">
         <v>54997047310</v>
       </c>
-      <c r="O1397" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="1398" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1398" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1398" s="1">
         <v>7597</v>
       </c>
@@ -63170,7 +62885,7 @@
         <v>51998027075</v>
       </c>
     </row>
-    <row r="1399" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1399" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1399" s="1">
         <v>7598</v>
       </c>
@@ -63211,7 +62926,7 @@
         <v>51996250759</v>
       </c>
     </row>
-    <row r="1400" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1400" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1400" s="1">
         <v>7599</v>
       </c>
@@ -63252,7 +62967,7 @@
         <v>51996625197</v>
       </c>
     </row>
-    <row r="1401" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1401" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1401" s="1">
         <v>7600</v>
       </c>
@@ -63293,7 +63008,7 @@
         <v>5136145044</v>
       </c>
     </row>
-    <row r="1402" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1402" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1402" s="1">
         <v>7601</v>
       </c>
@@ -63334,7 +63049,7 @@
         <v>51999576094</v>
       </c>
     </row>
-    <row r="1403" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1403" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1403" s="1">
         <v>7602</v>
       </c>
@@ -63375,7 +63090,7 @@
         <v>51998459616</v>
       </c>
     </row>
-    <row r="1404" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1404" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1404" s="1">
         <v>7603</v>
       </c>
@@ -63416,7 +63131,7 @@
         <v>51995588716</v>
       </c>
     </row>
-    <row r="1405" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1405" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1405" s="1">
         <v>7606</v>
       </c>
@@ -63457,7 +63172,7 @@
         <v>51996904002</v>
       </c>
     </row>
-    <row r="1406" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1406" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1406" s="1">
         <v>7607</v>
       </c>
@@ -63498,7 +63213,7 @@
         <v>51985977825</v>
       </c>
     </row>
-    <row r="1407" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1407" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1407" s="1">
         <v>7608</v>
       </c>
@@ -63539,7 +63254,7 @@
         <v>51997036153</v>
       </c>
     </row>
-    <row r="1408" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1408" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1408" s="1">
         <v>7609</v>
       </c>
@@ -63577,16 +63292,13 @@
         <v>218.4</v>
       </c>
       <c r="M1408" t="s">
-        <v>2</v>
+        <v>1804</v>
       </c>
       <c r="N1408" s="3">
         <v>51999177185</v>
       </c>
-      <c r="O1408" t="s">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="1409" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1409" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1409" s="1">
         <v>7610</v>
       </c>
@@ -63627,7 +63339,7 @@
         <v>51998166109</v>
       </c>
     </row>
-    <row r="1410" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1410" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1410" s="1">
         <v>7611</v>
       </c>
@@ -63668,7 +63380,7 @@
         <v>51995763157</v>
       </c>
     </row>
-    <row r="1411" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1411" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1411" s="1">
         <v>7612</v>
       </c>
@@ -63709,7 +63421,7 @@
         <v>51998477649</v>
       </c>
     </row>
-    <row r="1412" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1412" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1412" s="1">
         <v>7613</v>
       </c>
@@ -63750,7 +63462,7 @@
         <v>51999880093</v>
       </c>
     </row>
-    <row r="1413" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1413" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1413" s="1">
         <v>7614</v>
       </c>
@@ -63791,7 +63503,7 @@
         <v>51999746306</v>
       </c>
     </row>
-    <row r="1414" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1414" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1414" s="1">
         <v>7615</v>
       </c>
@@ -63832,7 +63544,7 @@
         <v>51999999999</v>
       </c>
     </row>
-    <row r="1415" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1415" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1415" s="1">
         <v>7616</v>
       </c>
@@ -63873,7 +63585,7 @@
         <v>51995934840</v>
       </c>
     </row>
-    <row r="1416" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1416" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1416" s="1">
         <v>7617</v>
       </c>
@@ -63914,7 +63626,7 @@
         <v>51993177476</v>
       </c>
     </row>
-    <row r="1417" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1417" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1417" s="1">
         <v>7618</v>
       </c>
@@ -63952,16 +63664,13 @@
         <v>184.8</v>
       </c>
       <c r="M1417" t="s">
-        <v>2</v>
+        <v>1596</v>
       </c>
       <c r="N1417" s="3">
         <v>51997624719</v>
       </c>
-      <c r="O1417" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="1418" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1418" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1418" s="1">
         <v>7619</v>
       </c>
@@ -64002,7 +63711,7 @@
         <v>51996759091</v>
       </c>
     </row>
-    <row r="1419" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1419" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1419" s="1">
         <v>7622</v>
       </c>
@@ -64043,7 +63752,7 @@
         <v>51999897570</v>
       </c>
     </row>
-    <row r="1420" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1420" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1420" s="1">
         <v>7623</v>
       </c>
@@ -64084,7 +63793,7 @@
         <v>51996963369</v>
       </c>
     </row>
-    <row r="1421" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1421" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1421" s="1">
         <v>7626</v>
       </c>
@@ -64125,7 +63834,7 @@
         <v>51996167898</v>
       </c>
     </row>
-    <row r="1422" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1422" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1422" s="1">
         <v>7628</v>
       </c>
@@ -64163,16 +63872,13 @@
         <v>4183.2</v>
       </c>
       <c r="M1422" t="s">
-        <v>2</v>
+        <v>1820</v>
       </c>
       <c r="N1422" s="3">
         <v>54999056696</v>
       </c>
-      <c r="O1422" t="s">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="1423" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1423" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1423" s="1">
         <v>7629</v>
       </c>
@@ -64213,7 +63919,7 @@
         <v>51999564949</v>
       </c>
     </row>
-    <row r="1424" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1424" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1424" s="1">
         <v>7632</v>
       </c>
@@ -64254,7 +63960,7 @@
         <v>5134451128</v>
       </c>
     </row>
-    <row r="1425" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1425" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1425" s="1">
         <v>7633</v>
       </c>
@@ -64295,7 +64001,7 @@
         <v>51996364271</v>
       </c>
     </row>
-    <row r="1426" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1426" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1426" s="1">
         <v>7634</v>
       </c>
@@ -64336,7 +64042,7 @@
         <v>51980035720</v>
       </c>
     </row>
-    <row r="1427" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1427" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1427" s="1">
         <v>7635</v>
       </c>
@@ -64374,16 +64080,13 @@
         <v>9928.67</v>
       </c>
       <c r="M1427" t="s">
-        <v>2</v>
+        <v>1827</v>
       </c>
       <c r="N1427" s="3">
         <v>51981259955</v>
       </c>
-      <c r="O1427" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="1428" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1428" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1428" s="1">
         <v>7636</v>
       </c>
@@ -64424,7 +64127,7 @@
         <v>51996619699</v>
       </c>
     </row>
-    <row r="1429" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1429" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1429" s="1">
         <v>7637</v>
       </c>
@@ -64465,7 +64168,7 @@
         <v>51982290450</v>
       </c>
     </row>
-    <row r="1430" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1430" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1430" s="1">
         <v>7638</v>
       </c>
@@ -64506,7 +64209,7 @@
         <v>51981810147</v>
       </c>
     </row>
-    <row r="1431" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1431" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1431" s="1">
         <v>7639</v>
       </c>
@@ -64547,7 +64250,7 @@
         <v>51998719160</v>
       </c>
     </row>
-    <row r="1432" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1432" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1432" s="1">
         <v>7640</v>
       </c>
@@ -64588,7 +64291,7 @@
         <v>51995432846</v>
       </c>
     </row>
-    <row r="1433" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1433" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1433" s="1">
         <v>7643</v>
       </c>
@@ -64629,7 +64332,7 @@
         <v>51996217511</v>
       </c>
     </row>
-    <row r="1434" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1434" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1434" s="1">
         <v>7644</v>
       </c>
@@ -64670,7 +64373,7 @@
         <v>51986555017</v>
       </c>
     </row>
-    <row r="1435" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1435" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1435" s="1">
         <v>7646</v>
       </c>
@@ -64708,16 +64411,13 @@
         <v>319.2</v>
       </c>
       <c r="M1435" t="s">
-        <v>2</v>
+        <v>843</v>
       </c>
       <c r="N1435" s="3">
         <v>51996042496</v>
       </c>
-      <c r="O1435" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="1436" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1436" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1436" s="1">
         <v>7647</v>
       </c>
@@ -64755,16 +64455,13 @@
         <v>412.71</v>
       </c>
       <c r="M1436" t="s">
-        <v>2</v>
+        <v>843</v>
       </c>
       <c r="N1436" s="3">
         <v>51998599847</v>
       </c>
-      <c r="O1436" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="1437" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1437" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1437" s="1">
         <v>7648</v>
       </c>
@@ -64805,7 +64502,7 @@
         <v>519990335058</v>
       </c>
     </row>
-    <row r="1438" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1438" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1438" s="1">
         <v>7649</v>
       </c>
@@ -64846,7 +64543,7 @@
         <v>51998468067</v>
       </c>
     </row>
-    <row r="1439" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1439" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1439" s="1">
         <v>7650</v>
       </c>
@@ -64887,7 +64584,7 @@
         <v>519997083705</v>
       </c>
     </row>
-    <row r="1440" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1440" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1440" s="1">
         <v>7651</v>
       </c>
@@ -64925,16 +64622,13 @@
         <v>1360.8</v>
       </c>
       <c r="M1440" t="s">
-        <v>2</v>
+        <v>1642</v>
       </c>
       <c r="N1440" s="3">
         <v>51992299806</v>
       </c>
-      <c r="O1440" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="1441" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1441" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1441" s="1">
         <v>7652</v>
       </c>
@@ -64975,7 +64669,7 @@
         <v>51999360874</v>
       </c>
     </row>
-    <row r="1442" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1442" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1442" s="1">
         <v>7653</v>
       </c>
@@ -65016,7 +64710,7 @@
         <v>51995965853</v>
       </c>
     </row>
-    <row r="1443" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1443" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1443" s="1">
         <v>7654</v>
       </c>
@@ -65057,7 +64751,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="1444" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1444" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1444" s="1">
         <v>7655</v>
       </c>
@@ -65098,7 +64792,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="1445" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1445" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1445" s="1">
         <v>7656</v>
       </c>
@@ -65136,16 +64830,13 @@
         <v>10080</v>
       </c>
       <c r="M1445" t="s">
-        <v>2</v>
+        <v>1850</v>
       </c>
       <c r="N1445" s="3">
         <v>53999792682</v>
       </c>
-      <c r="O1445" t="s">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="1446" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1446" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1446" s="1">
         <v>7657</v>
       </c>
@@ -65186,7 +64877,7 @@
         <v>51999351010</v>
       </c>
     </row>
-    <row r="1447" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1447" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1447" s="1">
         <v>7658</v>
       </c>
@@ -65227,7 +64918,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="1448" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1448" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1448" s="1">
         <v>7659</v>
       </c>
@@ -65268,7 +64959,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="1449" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1449" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1449" s="1">
         <v>7660</v>
       </c>
@@ -65309,7 +65000,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="1450" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1450" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1450" s="1">
         <v>7661</v>
       </c>
@@ -65350,7 +65041,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="1451" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1451" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1451" s="1">
         <v>7662</v>
       </c>
@@ -65391,7 +65082,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="1452" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1452" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1452" s="1">
         <v>7663</v>
       </c>
@@ -65432,7 +65123,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="1453" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1453" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1453" s="1">
         <v>7664</v>
       </c>
@@ -65470,16 +65161,13 @@
         <v>179.34</v>
       </c>
       <c r="M1453" t="s">
-        <v>2</v>
+        <v>1865</v>
       </c>
       <c r="N1453" s="3" t="s">
         <v>1866</v>
       </c>
-      <c r="O1453" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="1454" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1454" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1454" s="1">
         <v>7665</v>
       </c>
@@ -65520,7 +65208,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="1455" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1455" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1455" s="1">
         <v>7666</v>
       </c>
@@ -65561,7 +65249,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="1456" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1456" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1456" s="1">
         <v>7667</v>
       </c>
@@ -65602,7 +65290,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="1457" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1457" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1457" s="1">
         <v>7670</v>
       </c>
@@ -65643,7 +65331,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="1458" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1458" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1458" s="1">
         <v>7671</v>
       </c>
@@ -65684,7 +65372,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="1459" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1459" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1459" s="1">
         <v>7672</v>
       </c>
@@ -65725,7 +65413,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="1460" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1460" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1460" s="1">
         <v>7673</v>
       </c>
@@ -65763,16 +65451,13 @@
         <v>6540.67</v>
       </c>
       <c r="M1460" t="s">
-        <v>2</v>
+        <v>1881</v>
       </c>
       <c r="N1460" s="3" t="s">
         <v>1882</v>
       </c>
-      <c r="O1460" t="s">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="1461" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1461" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1461" s="1">
         <v>7676</v>
       </c>
@@ -65813,7 +65498,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="1462" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1462" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1462" s="1">
         <v>7677</v>
       </c>
@@ -65854,7 +65539,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="1463" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1463" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1463" s="1">
         <v>7679</v>
       </c>
@@ -65895,7 +65580,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="1464" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1464" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1464" s="1">
         <v>7680</v>
       </c>
@@ -65936,7 +65621,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="1465" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1465" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1465" s="1">
         <v>7681</v>
       </c>
@@ -65977,7 +65662,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="1466" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1466" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1466" s="1">
         <v>7682</v>
       </c>
@@ -66018,7 +65703,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="1467" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1467" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1467" s="1">
         <v>7683</v>
       </c>
@@ -66056,16 +65741,13 @@
         <v>223.19</v>
       </c>
       <c r="M1467" t="s">
-        <v>2</v>
+        <v>1896</v>
       </c>
       <c r="N1467" s="3" t="s">
         <v>1897</v>
       </c>
-      <c r="O1467" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="1468" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1468" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1468" s="1">
         <v>7685</v>
       </c>
@@ -66106,7 +65788,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="1469" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1469" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1469" s="1">
         <v>7686</v>
       </c>
@@ -66147,7 +65829,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="1470" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1470" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1470" s="1">
         <v>7687</v>
       </c>
@@ -66188,7 +65870,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="1471" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1471" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1471" s="1">
         <v>7688</v>
       </c>
@@ -66229,7 +65911,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="1472" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1472" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1472" s="1">
         <v>7690</v>
       </c>
@@ -66270,7 +65952,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="1473" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1473" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1473" s="1">
         <v>7691</v>
       </c>
@@ -66311,7 +65993,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="1474" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1474" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1474" s="1">
         <v>7692</v>
       </c>
@@ -66352,7 +66034,7 @@
         <v>51998638197</v>
       </c>
     </row>
-    <row r="1475" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1475" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1475" s="1">
         <v>7693</v>
       </c>
@@ -66390,16 +66072,13 @@
         <v>1612.8</v>
       </c>
       <c r="M1475" t="s">
-        <v>2</v>
+        <v>1912</v>
       </c>
       <c r="N1475" s="3">
         <v>5199927889</v>
       </c>
-      <c r="O1475" t="s">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="1476" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1476" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1476" s="1">
         <v>7694</v>
       </c>
@@ -66440,7 +66119,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="1477" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1477" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1477" s="1">
         <v>7696</v>
       </c>
@@ -66481,7 +66160,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="1478" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1478" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1478" s="1">
         <v>7698</v>
       </c>
@@ -66522,7 +66201,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="1479" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1479" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1479" s="1">
         <v>7699</v>
       </c>
@@ -66563,7 +66242,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="1480" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1480" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1480" s="1">
         <v>7700</v>
       </c>
@@ -66601,16 +66280,13 @@
         <v>29.97</v>
       </c>
       <c r="M1480" t="s">
-        <v>2</v>
+        <v>1922</v>
       </c>
       <c r="N1480" s="3" t="s">
         <v>1923</v>
       </c>
-      <c r="O1480" t="s">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="1481" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1481" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1481" s="1">
         <v>7702</v>
       </c>
@@ -66648,16 +66324,13 @@
         <v>8.3800000000000008</v>
       </c>
       <c r="M1481" t="s">
-        <v>2</v>
+        <v>1925</v>
       </c>
       <c r="N1481" s="3" t="s">
         <v>1926</v>
       </c>
-      <c r="O1481" t="s">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="1482" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1482" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1482" s="1">
         <v>7703</v>
       </c>
@@ -66698,7 +66371,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="1483" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1483" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1483" s="1">
         <v>7704</v>
       </c>
@@ -66739,7 +66412,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="1484" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1484" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1484" s="1">
         <v>7705</v>
       </c>
@@ -66780,7 +66453,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="1485" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1485" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1485" s="1">
         <v>7706</v>
       </c>
@@ -66821,7 +66494,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="1486" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1486" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1486" s="1">
         <v>7707</v>
       </c>
@@ -66862,7 +66535,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="1487" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1487" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1487" s="1">
         <v>7708</v>
       </c>
@@ -66900,16 +66573,13 @@
         <v>104.39</v>
       </c>
       <c r="M1487" t="s">
-        <v>2</v>
+        <v>1938</v>
       </c>
       <c r="N1487" s="3" t="s">
         <v>1939</v>
       </c>
-      <c r="O1487" t="s">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="1488" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1488" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1488" s="1">
         <v>7709</v>
       </c>
@@ -67199,9 +66869,7 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M127" r:id="rId1" xr:uid="{AFE5D6F3-626D-4054-B1C5-D8D88E3DD08B}"/>
-  </hyperlinks>
+  <autoFilter ref="N1:N1495" xr:uid="{F361D98C-A517-43E3-9EFB-079E092BD8B3}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>